--- a/InputData/bldgs/BCEU/BAU Components Energy Use.xlsx
+++ b/InputData/bldgs/BCEU/BAU Components Energy Use.xlsx
@@ -49658,100 +49658,100 @@
         </is>
       </c>
       <c r="J4" s="105" t="n">
-        <v>38034840244178.23</v>
+        <v>16327578608418.31</v>
       </c>
       <c r="K4" s="105" t="n">
-        <v>38122150486405.09</v>
+        <v>16417734825123.04</v>
       </c>
       <c r="L4" s="105" t="n">
-        <v>38185811448952.49</v>
+        <v>16504450611287.66</v>
       </c>
       <c r="M4" s="105" t="n">
-        <v>38210055922994.02</v>
+        <v>16577174785008.33</v>
       </c>
       <c r="N4" s="105" t="n">
-        <v>38218006563838.13</v>
+        <v>16641336680186.89</v>
       </c>
       <c r="O4" s="105" t="n">
-        <v>38208223115967.85</v>
+        <v>16706301698204.92</v>
       </c>
       <c r="P4" s="105" t="n">
-        <v>38191155026982.61</v>
+        <v>16767488917168</v>
       </c>
       <c r="Q4" s="105" t="n">
-        <v>38178964800693.44</v>
+        <v>16833576691789.08</v>
       </c>
       <c r="R4" s="105" t="n">
-        <v>38180762887158.05</v>
+        <v>16909088769355.39</v>
       </c>
       <c r="S4" s="105" t="n">
-        <v>38164043766564.98</v>
+        <v>16987118759496.93</v>
       </c>
       <c r="T4" s="105" t="n">
-        <v>38163668727231.16</v>
+        <v>17068741872307.15</v>
       </c>
       <c r="U4" s="105" t="n">
-        <v>38151446602023.98</v>
+        <v>17158624031278.55</v>
       </c>
       <c r="V4" s="105" t="n">
-        <v>38156642337137.23</v>
+        <v>17256777978670.78</v>
       </c>
       <c r="W4" s="105" t="n">
-        <v>38171722114094.51</v>
+        <v>17360679323783.74</v>
       </c>
       <c r="X4" s="105" t="n">
-        <v>38193904450133.29</v>
+        <v>17469891640158.53</v>
       </c>
       <c r="Y4" s="105" t="n">
-        <v>38250197384210.84</v>
+        <v>17584486327299.33</v>
       </c>
       <c r="Z4" s="105" t="n">
-        <v>38316099013471.23</v>
+        <v>17705845295923.61</v>
       </c>
       <c r="AA4" s="105" t="n">
-        <v>38428932683765.96</v>
+        <v>17833139883871.92</v>
       </c>
       <c r="AB4" s="105" t="n">
-        <v>38562327171100.45</v>
+        <v>17964557183030.95</v>
       </c>
       <c r="AC4" s="105" t="n">
-        <v>38714069881515.87</v>
+        <v>18097959110069.09</v>
       </c>
       <c r="AD4" s="105" t="n">
-        <v>38878863249974.98</v>
+        <v>18237771685856.5</v>
       </c>
       <c r="AE4" s="105" t="n">
-        <v>39065953269048.34</v>
+        <v>18374591838943.8</v>
       </c>
       <c r="AF4" s="105" t="n">
-        <v>39168925126596.66</v>
+        <v>18399969768908.46</v>
       </c>
       <c r="AG4" s="105" t="n">
-        <v>39274717624494.91</v>
+        <v>18426831173412.67</v>
       </c>
       <c r="AH4" s="105" t="n">
-        <v>39396011305801.26</v>
+        <v>18452747849105.79</v>
       </c>
       <c r="AI4" s="105" t="n">
-        <v>39520005257183.43</v>
+        <v>18480239660566.23</v>
       </c>
       <c r="AJ4" s="105" t="n">
-        <v>39652798856246.66</v>
+        <v>18506476197070.54</v>
       </c>
       <c r="AK4" s="105" t="n">
-        <v>39777276884326.42</v>
+        <v>18532683093802.85</v>
       </c>
       <c r="AL4" s="105" t="n">
-        <v>39904044611081.12</v>
+        <v>18559045437587.7</v>
       </c>
       <c r="AM4" s="105" t="n">
-        <v>40035231110406.28</v>
+        <v>18587173987309.55</v>
       </c>
       <c r="AN4" s="105" t="n">
-        <v>40170998076303.33</v>
+        <v>18614354026362.87</v>
       </c>
       <c r="AO4" s="105" t="n">
-        <v>40311602158951.76</v>
+        <v>18642016194093.5</v>
       </c>
     </row>
     <row r="5">
@@ -49761,100 +49761,100 @@
         </is>
       </c>
       <c r="J5" s="93" t="n">
-        <v>296630681.9431208</v>
+        <v>783799546.2708328</v>
       </c>
       <c r="K5" s="93" t="n">
-        <v>297282681.8035125</v>
+        <v>783093448.2624614</v>
       </c>
       <c r="L5" s="93" t="n">
-        <v>298093187.7157186</v>
+        <v>782835078.4070069</v>
       </c>
       <c r="M5" s="93" t="n">
-        <v>298771989.9781885</v>
+        <v>782548945.0763557</v>
       </c>
       <c r="N5" s="93" t="n">
-        <v>299483106.1560863</v>
+        <v>782462411.9387571</v>
       </c>
       <c r="O5" s="93" t="n">
-        <v>300398046.5085734</v>
+        <v>782797732.8149946</v>
       </c>
       <c r="P5" s="93" t="n">
-        <v>301230981.9305221</v>
+        <v>783149701.2987951</v>
       </c>
       <c r="Q5" s="93" t="n">
-        <v>302061093.3336969</v>
+        <v>783414545.6234257</v>
       </c>
       <c r="R5" s="93" t="n">
-        <v>302964997.4594899</v>
+        <v>783773488.9026124</v>
       </c>
       <c r="S5" s="93" t="n">
-        <v>303705132.9410985</v>
+        <v>784142430.0872642</v>
       </c>
       <c r="T5" s="93" t="n">
-        <v>304476636.6647431</v>
+        <v>784427976.8946545</v>
       </c>
       <c r="U5" s="93" t="n">
-        <v>305109920.0020891</v>
+        <v>784706895.9770638</v>
       </c>
       <c r="V5" s="93" t="n">
-        <v>305735513.3205509</v>
+        <v>785212887.3830316</v>
       </c>
       <c r="W5" s="93" t="n">
-        <v>306438865.0199257</v>
+        <v>785739863.0833318</v>
       </c>
       <c r="X5" s="93" t="n">
-        <v>306964560.7248441</v>
+        <v>786131874.3739121</v>
       </c>
       <c r="Y5" s="93" t="n">
-        <v>307617972.6480939</v>
+        <v>786769223.1122236</v>
       </c>
       <c r="Z5" s="93" t="n">
-        <v>308170346.0898598</v>
+        <v>787517677.2140666</v>
       </c>
       <c r="AA5" s="93" t="n">
-        <v>308887692.1040552</v>
+        <v>788295300.4739403</v>
       </c>
       <c r="AB5" s="93" t="n">
-        <v>309604341.5083159</v>
+        <v>789243182.1622218</v>
       </c>
       <c r="AC5" s="93" t="n">
-        <v>310191867.0298425</v>
+        <v>790147637.8913716</v>
       </c>
       <c r="AD5" s="93" t="n">
-        <v>310893586.5982593</v>
+        <v>791244866.9923804</v>
       </c>
       <c r="AE5" s="93" t="n">
-        <v>311588942.5714006</v>
+        <v>792308863.7763689</v>
       </c>
       <c r="AF5" s="93" t="n">
-        <v>313102738.5644181</v>
+        <v>793724582.708259</v>
       </c>
       <c r="AG5" s="93" t="n">
-        <v>314461062.082395</v>
+        <v>795187964.2320082</v>
       </c>
       <c r="AH5" s="93" t="n">
-        <v>315925208.6329739</v>
+        <v>796462090.6609994</v>
       </c>
       <c r="AI5" s="93" t="n">
-        <v>317369954.4009205</v>
+        <v>797801565.7067616</v>
       </c>
       <c r="AJ5" s="93" t="n">
-        <v>318931362.3090355</v>
+        <v>798969780.8729844</v>
       </c>
       <c r="AK5" s="93" t="n">
-        <v>320348488.671461</v>
+        <v>800098399.6017504</v>
       </c>
       <c r="AL5" s="93" t="n">
-        <v>321754809.3017204</v>
+        <v>801192226.8968325</v>
       </c>
       <c r="AM5" s="93" t="n">
-        <v>323153114.0991813</v>
+        <v>802382267.1777916</v>
       </c>
       <c r="AN5" s="93" t="n">
-        <v>324546417.011</v>
+        <v>803428891.5307893</v>
       </c>
       <c r="AO5" s="93" t="n">
-        <v>325937203.3478428</v>
+        <v>804461974.4450099</v>
       </c>
     </row>
     <row r="6">
@@ -49869,100 +49869,100 @@
         </is>
       </c>
       <c r="J6" s="105" t="n">
-        <v>57525354469575.77</v>
+        <v>89964100258728.08</v>
       </c>
       <c r="K6" s="105" t="n">
-        <v>57614107674374.98</v>
+        <v>90400077203781.8</v>
       </c>
       <c r="L6" s="105" t="n">
-        <v>57679342034514.18</v>
+        <v>90802090814138.16</v>
       </c>
       <c r="M6" s="105" t="n">
-        <v>57690944543144.89</v>
+        <v>91105245548383.14</v>
       </c>
       <c r="N6" s="105" t="n">
-        <v>57675178881220.66</v>
+        <v>91323623804769.06</v>
       </c>
       <c r="O6" s="105" t="n">
-        <v>57635385593521.73</v>
+        <v>91533306699989.8</v>
       </c>
       <c r="P6" s="105" t="n">
-        <v>57590331343893.02</v>
+        <v>91680408153451.67</v>
       </c>
       <c r="Q6" s="105" t="n">
-        <v>57576974856354.38</v>
+        <v>91834237577412.52</v>
       </c>
       <c r="R6" s="105" t="n">
-        <v>57619107255086.85</v>
+        <v>92018086946379.5</v>
       </c>
       <c r="S6" s="105" t="n">
-        <v>57651888475416.22</v>
+        <v>92185426028620.05</v>
       </c>
       <c r="T6" s="105" t="n">
-        <v>57739784510091.62</v>
+        <v>92336812850337.19</v>
       </c>
       <c r="U6" s="105" t="n">
-        <v>57831920980606.51</v>
+        <v>92494835414647.77</v>
       </c>
       <c r="V6" s="105" t="n">
-        <v>57972144664112.52</v>
+        <v>92682331269523.28</v>
       </c>
       <c r="W6" s="105" t="n">
-        <v>58146276268731.36</v>
+        <v>92886853423134.33</v>
       </c>
       <c r="X6" s="105" t="n">
-        <v>58336563441827.06</v>
+        <v>93108311554807.23</v>
       </c>
       <c r="Y6" s="105" t="n">
-        <v>58575163883998.6</v>
+        <v>93376094007782.44</v>
       </c>
       <c r="Z6" s="105" t="n">
-        <v>58806480341637.41</v>
+        <v>93700533390717.89</v>
       </c>
       <c r="AA6" s="105" t="n">
-        <v>59109245669991.47</v>
+        <v>94060190531790.59</v>
       </c>
       <c r="AB6" s="105" t="n">
-        <v>59430759846532.81</v>
+        <v>94496638266251.06</v>
       </c>
       <c r="AC6" s="105" t="n">
-        <v>59756962051751.39</v>
+        <v>94978659010654.97</v>
       </c>
       <c r="AD6" s="105" t="n">
-        <v>60097238234171.22</v>
+        <v>95537302233120.23</v>
       </c>
       <c r="AE6" s="105" t="n">
-        <v>60468864892592.73</v>
+        <v>96122180609876.72</v>
       </c>
       <c r="AF6" s="105" t="n">
-        <v>60636922572941.8</v>
+        <v>95951182659240.08</v>
       </c>
       <c r="AG6" s="105" t="n">
-        <v>60802440277962.16</v>
+        <v>95832459037548.05</v>
       </c>
       <c r="AH6" s="105" t="n">
-        <v>61002169507944.09</v>
+        <v>95737980673983.69</v>
       </c>
       <c r="AI6" s="105" t="n">
-        <v>61219368584627.94</v>
+        <v>95685616152590.73</v>
       </c>
       <c r="AJ6" s="105" t="n">
-        <v>61475009805463.13</v>
+        <v>95646355001499.17</v>
       </c>
       <c r="AK6" s="105" t="n">
-        <v>61726810712570.43</v>
+        <v>95625415847863.7</v>
       </c>
       <c r="AL6" s="105" t="n">
-        <v>61986217146117.5</v>
+        <v>95616662291671.02</v>
       </c>
       <c r="AM6" s="105" t="n">
-        <v>62245484767178.63</v>
+        <v>95626279881964.73</v>
       </c>
       <c r="AN6" s="105" t="n">
-        <v>62496069009319.1</v>
+        <v>95627467335781.16</v>
       </c>
       <c r="AO6" s="105" t="n">
-        <v>62732667996920.9</v>
+        <v>95628900915597.08</v>
       </c>
     </row>
     <row r="7">
@@ -49977,100 +49977,100 @@
         </is>
       </c>
       <c r="J7" s="105" t="n">
-        <v>5809108701386.697</v>
+        <v>1319461374225.082</v>
       </c>
       <c r="K7" s="105" t="n">
-        <v>5795106800135.362</v>
+        <v>1328451650600.252</v>
       </c>
       <c r="L7" s="105" t="n">
-        <v>5776507520198.192</v>
+        <v>1336941425122.018</v>
       </c>
       <c r="M7" s="105" t="n">
-        <v>5750018136897.318</v>
+        <v>1343391109215.891</v>
       </c>
       <c r="N7" s="105" t="n">
-        <v>5715422209082.903</v>
+        <v>1348008176057.45</v>
       </c>
       <c r="O7" s="105" t="n">
-        <v>5670848830904.343</v>
+        <v>1351620317946.875</v>
       </c>
       <c r="P7" s="105" t="n">
-        <v>5613918650014.564</v>
+        <v>1352543157752.059</v>
       </c>
       <c r="Q7" s="105" t="n">
-        <v>5544680819321.188</v>
+        <v>1351053322622.898</v>
       </c>
       <c r="R7" s="105" t="n">
-        <v>5459683481913.548</v>
+        <v>1346811479024.334</v>
       </c>
       <c r="S7" s="105" t="n">
-        <v>5346762397170.606</v>
+        <v>1338047710023.531</v>
       </c>
       <c r="T7" s="105" t="n">
-        <v>5209617967003.282</v>
+        <v>1324343807641.154</v>
       </c>
       <c r="U7" s="105" t="n">
-        <v>5041540949527.341</v>
+        <v>1305910686941.087</v>
       </c>
       <c r="V7" s="105" t="n">
-        <v>4849167696797.911</v>
+        <v>1283177787022.361</v>
       </c>
       <c r="W7" s="105" t="n">
-        <v>4636920059144.704</v>
+        <v>1256845287056.76</v>
       </c>
       <c r="X7" s="105" t="n">
-        <v>4406582100599.357</v>
+        <v>1227551182416.475</v>
       </c>
       <c r="Y7" s="105" t="n">
-        <v>4163288604796.895</v>
+        <v>1196166535080.652</v>
       </c>
       <c r="Z7" s="105" t="n">
-        <v>3906134068535.528</v>
+        <v>1163693380888.635</v>
       </c>
       <c r="AA7" s="105" t="n">
-        <v>3646270131408.625</v>
+        <v>1130867880360.548</v>
       </c>
       <c r="AB7" s="105" t="n">
-        <v>3382922970077.043</v>
+        <v>1098266544833.811</v>
       </c>
       <c r="AC7" s="105" t="n">
-        <v>3116854487710.78</v>
+        <v>1065566093133.135</v>
       </c>
       <c r="AD7" s="105" t="n">
-        <v>2851603829198.63</v>
+        <v>1033033355619.16</v>
       </c>
       <c r="AE7" s="105" t="n">
-        <v>2589939592870.796</v>
+        <v>999447587400.8047</v>
       </c>
       <c r="AF7" s="105" t="n">
-        <v>2322863763620.604</v>
+        <v>957356384897.8947</v>
       </c>
       <c r="AG7" s="105" t="n">
-        <v>2064961925844.683</v>
+        <v>915160440327.6639</v>
       </c>
       <c r="AH7" s="105" t="n">
-        <v>1819352601588.479</v>
+        <v>872546791829.7437</v>
       </c>
       <c r="AI7" s="105" t="n">
-        <v>1586873600535.047</v>
+        <v>830109381166.8118</v>
       </c>
       <c r="AJ7" s="105" t="n">
-        <v>1370386626337.891</v>
+        <v>788176481559.1917</v>
       </c>
       <c r="AK7" s="105" t="n">
-        <v>1171209170341.764</v>
+        <v>747491276159.7771</v>
       </c>
       <c r="AL7" s="105" t="n">
-        <v>991990341776.9606</v>
+        <v>708532396397.5194</v>
       </c>
       <c r="AM7" s="105" t="n">
-        <v>833755339335.3734</v>
+        <v>671757509466.4576</v>
       </c>
       <c r="AN7" s="105" t="n">
-        <v>696366126531.4026</v>
+        <v>637207919840.1277</v>
       </c>
       <c r="AO7" s="105" t="n">
-        <v>578994319161.5814</v>
+        <v>605260803487.0706</v>
       </c>
     </row>
     <row r="8">
@@ -50188,100 +50188,100 @@
         </is>
       </c>
       <c r="J9" s="105" t="n">
-        <v>9999824341374.98</v>
+        <v>10583292848751.86</v>
       </c>
       <c r="K9" s="105" t="n">
-        <v>9980247499422.994</v>
+        <v>10626282966786.27</v>
       </c>
       <c r="L9" s="105" t="n">
-        <v>9955258984691.482</v>
+        <v>10663629312688.83</v>
       </c>
       <c r="M9" s="105" t="n">
-        <v>9919766259612.26</v>
+        <v>10689149862082.72</v>
       </c>
       <c r="N9" s="105" t="n">
-        <v>9880121115516.891</v>
+        <v>10704139667242.19</v>
       </c>
       <c r="O9" s="105" t="n">
-        <v>9837459029467.998</v>
+        <v>10716199626874.82</v>
       </c>
       <c r="P9" s="105" t="n">
-        <v>9790480201557.172</v>
+        <v>10720666701763.86</v>
       </c>
       <c r="Q9" s="105" t="n">
-        <v>9746954552606.465</v>
+        <v>10724847998534.48</v>
       </c>
       <c r="R9" s="105" t="n">
-        <v>9707901087282.166</v>
+        <v>10731599903735.28</v>
       </c>
       <c r="S9" s="105" t="n">
-        <v>9663151725580.273</v>
+        <v>10737490789409.29</v>
       </c>
       <c r="T9" s="105" t="n">
-        <v>9623429963292.986</v>
+        <v>10741080222551.89</v>
       </c>
       <c r="U9" s="105" t="n">
-        <v>9578647397956.514</v>
+        <v>10743566760266.71</v>
       </c>
       <c r="V9" s="105" t="n">
-        <v>9537737749672.146</v>
+        <v>10751461892892.18</v>
       </c>
       <c r="W9" s="105" t="n">
-        <v>9504008271989.459</v>
+        <v>10762341055884.39</v>
       </c>
       <c r="X9" s="105" t="n">
-        <v>9471327440004.174</v>
+        <v>10774264443714.67</v>
       </c>
       <c r="Y9" s="105" t="n">
-        <v>9449407475763.877</v>
+        <v>10794288177069.33</v>
       </c>
       <c r="Z9" s="105" t="n">
-        <v>9432987115919.277</v>
+        <v>10823712770457.42</v>
       </c>
       <c r="AA9" s="105" t="n">
-        <v>9436208427658.812</v>
+        <v>10860142656739.73</v>
       </c>
       <c r="AB9" s="105" t="n">
-        <v>9452988079974.242</v>
+        <v>10911324285026.63</v>
       </c>
       <c r="AC9" s="105" t="n">
-        <v>9477482159277.09</v>
+        <v>10969945324168.46</v>
       </c>
       <c r="AD9" s="105" t="n">
-        <v>9510272239978.025</v>
+        <v>11036311335279.38</v>
       </c>
       <c r="AE9" s="105" t="n">
-        <v>9549412321267.697</v>
+        <v>11102683699817.24</v>
       </c>
       <c r="AF9" s="105" t="n">
-        <v>9575233906176.713</v>
+        <v>11090499191966.55</v>
       </c>
       <c r="AG9" s="105" t="n">
-        <v>9596994730409.035</v>
+        <v>11077625179210.29</v>
       </c>
       <c r="AH9" s="105" t="n">
-        <v>9618757404823.264</v>
+        <v>11059380041835.16</v>
       </c>
       <c r="AI9" s="105" t="n">
-        <v>9633915213437.279</v>
+        <v>11039630076410.28</v>
       </c>
       <c r="AJ9" s="105" t="n">
-        <v>9646355620026.131</v>
+        <v>11016812369744.82</v>
       </c>
       <c r="AK9" s="105" t="n">
-        <v>9649843270030.379</v>
+        <v>10994609461555.34</v>
       </c>
       <c r="AL9" s="105" t="n">
-        <v>9651166893471.473</v>
+        <v>10974181054486.8</v>
       </c>
       <c r="AM9" s="105" t="n">
-        <v>9652511775316.693</v>
+        <v>10957660330951.84</v>
       </c>
       <c r="AN9" s="105" t="n">
-        <v>9654011530418.453</v>
+        <v>10941526805060.71</v>
       </c>
       <c r="AO9" s="105" t="n">
-        <v>9655784194619.887</v>
+        <v>10927502669621.18</v>
       </c>
     </row>
     <row r="10">
@@ -50291,100 +50291,100 @@
         </is>
       </c>
       <c r="J10" s="93" t="n">
-        <v>784004068727.6968</v>
+        <v>61962010794.62445</v>
       </c>
       <c r="K10" s="93" t="n">
-        <v>783328009047.8948</v>
+        <v>62055946100.62724</v>
       </c>
       <c r="L10" s="93" t="n">
-        <v>782097934214.6171</v>
+        <v>62181007725.20142</v>
       </c>
       <c r="M10" s="93" t="n">
-        <v>779863462301.2625</v>
+        <v>62298027251.45837</v>
       </c>
       <c r="N10" s="93" t="n">
-        <v>776708739053.3181</v>
+        <v>62425080812.86737</v>
       </c>
       <c r="O10" s="93" t="n">
-        <v>772312244906.76</v>
+        <v>62579637881.94682</v>
       </c>
       <c r="P10" s="93" t="n">
-        <v>766130454977.696</v>
+        <v>62731423959.9142</v>
       </c>
       <c r="Q10" s="93" t="n">
-        <v>758158803759.0719</v>
+        <v>62871260547.33166</v>
       </c>
       <c r="R10" s="93" t="n">
-        <v>747807046552.1301</v>
+        <v>63010835864.83701</v>
       </c>
       <c r="S10" s="93" t="n">
-        <v>733683579276.5841</v>
+        <v>63140411283.66298</v>
       </c>
       <c r="T10" s="93" t="n">
-        <v>716329242605.9849</v>
+        <v>63252852586.54164</v>
       </c>
       <c r="U10" s="93" t="n">
-        <v>694907342497.7031</v>
+        <v>63353652038.67822</v>
       </c>
       <c r="V10" s="93" t="n">
-        <v>670353605052.243</v>
+        <v>63462912739.67428</v>
       </c>
       <c r="W10" s="93" t="n">
-        <v>643409564174.3796</v>
+        <v>63564509690.16593</v>
       </c>
       <c r="X10" s="93" t="n">
-        <v>614089414355.2697</v>
+        <v>63648011201.26387</v>
       </c>
       <c r="Y10" s="93" t="n">
-        <v>583146244375.4017</v>
+        <v>63746732441.87119</v>
       </c>
       <c r="Z10" s="93" t="n">
-        <v>550437713683.1467</v>
+        <v>63853710325.77925</v>
       </c>
       <c r="AA10" s="93" t="n">
-        <v>517156269300.7151</v>
+        <v>63964535442.73643</v>
       </c>
       <c r="AB10" s="93" t="n">
-        <v>483247762712.5033</v>
+        <v>64094046109.87402</v>
       </c>
       <c r="AC10" s="93" t="n">
-        <v>448817543258.5192</v>
+        <v>64224881143.64561</v>
       </c>
       <c r="AD10" s="93" t="n">
-        <v>414469606989.2194</v>
+        <v>64375372836.04724</v>
       </c>
       <c r="AE10" s="93" t="n">
-        <v>380688576936.8724</v>
+        <v>64525415265.24987</v>
       </c>
       <c r="AF10" s="93" t="n">
-        <v>347416892135.4872</v>
+        <v>64612668869.82205</v>
       </c>
       <c r="AG10" s="93" t="n">
-        <v>315629986267.3223</v>
+        <v>64706563409.18813</v>
       </c>
       <c r="AH10" s="93" t="n">
-        <v>285970119904.7526</v>
+        <v>64787275082.24803</v>
       </c>
       <c r="AI10" s="93" t="n">
-        <v>258657970692.6342</v>
+        <v>64875358732.06457</v>
       </c>
       <c r="AJ10" s="93" t="n">
-        <v>234115688176.1829</v>
+        <v>64951605769.65999</v>
       </c>
       <c r="AK10" s="93" t="n">
-        <v>212365897083.6626</v>
+        <v>65026807041.75305</v>
       </c>
       <c r="AL10" s="93" t="n">
-        <v>193637836918.6214</v>
+        <v>65101400449.96065</v>
       </c>
       <c r="AM10" s="93" t="n">
-        <v>177936168081.1871</v>
+        <v>65186012142.93646</v>
       </c>
       <c r="AN10" s="93" t="n">
-        <v>165129940788.9165</v>
+        <v>65261077718.39108</v>
       </c>
       <c r="AO10" s="93" t="n">
-        <v>154992845469.566</v>
+        <v>65336989808.26321</v>
       </c>
     </row>
     <row r="11">
@@ -50502,100 +50502,100 @@
         </is>
       </c>
       <c r="J12" s="105" t="n">
-        <v>6041889132056.472</v>
+        <v>14326586408741.45</v>
       </c>
       <c r="K12" s="105" t="n">
-        <v>6053034108480.291</v>
+        <v>14364163588732.22</v>
       </c>
       <c r="L12" s="105" t="n">
-        <v>6066482573597.639</v>
+        <v>14407187041772</v>
       </c>
       <c r="M12" s="105" t="n">
-        <v>6078623065222.982</v>
+        <v>14447927313455.26</v>
       </c>
       <c r="N12" s="105" t="n">
-        <v>6091858827416.873</v>
+        <v>14487098662608.67</v>
       </c>
       <c r="O12" s="105" t="n">
-        <v>6106483444511.795</v>
+        <v>14535098663062.72</v>
       </c>
       <c r="P12" s="105" t="n">
-        <v>6121255606864.683</v>
+        <v>14584401855531.26</v>
       </c>
       <c r="Q12" s="105" t="n">
-        <v>6139964536584.008</v>
+        <v>14645698994459.05</v>
       </c>
       <c r="R12" s="105" t="n">
-        <v>6163050264438.884</v>
+        <v>14722713604991.69</v>
       </c>
       <c r="S12" s="105" t="n">
-        <v>6183516541756.874</v>
+        <v>14808985628195.81</v>
       </c>
       <c r="T12" s="105" t="n">
-        <v>6207273851612.872</v>
+        <v>14902493787200.76</v>
       </c>
       <c r="U12" s="105" t="n">
-        <v>6228384744760.081</v>
+        <v>15002705735026.07</v>
       </c>
       <c r="V12" s="105" t="n">
-        <v>6250664990987.987</v>
+        <v>15112696692018.38</v>
       </c>
       <c r="W12" s="105" t="n">
-        <v>6274253796045.679</v>
+        <v>15222829425379.49</v>
       </c>
       <c r="X12" s="105" t="n">
-        <v>6294533547019.074</v>
+        <v>15327055915241.86</v>
       </c>
       <c r="Y12" s="105" t="n">
-        <v>6315665307144.612</v>
+        <v>15429922425885.69</v>
       </c>
       <c r="Z12" s="105" t="n">
-        <v>6331917026367.375</v>
+        <v>15529189123916.36</v>
       </c>
       <c r="AA12" s="105" t="n">
-        <v>6350433339256.21</v>
+        <v>15616272708292.07</v>
       </c>
       <c r="AB12" s="105" t="n">
-        <v>6366534155891.358</v>
+        <v>15704972423004.38</v>
       </c>
       <c r="AC12" s="105" t="n">
-        <v>6378305948307.742</v>
+        <v>15789373847904.79</v>
       </c>
       <c r="AD12" s="105" t="n">
-        <v>6389233321551.088</v>
+        <v>15877792109846.63</v>
       </c>
       <c r="AE12" s="105" t="n">
-        <v>6401080216909.914</v>
+        <v>15966002794295.08</v>
       </c>
       <c r="AF12" s="105" t="n">
-        <v>6401367102023.573</v>
+        <v>15932490829227.56</v>
       </c>
       <c r="AG12" s="105" t="n">
-        <v>6401002186899.102</v>
+        <v>15906404252688.34</v>
       </c>
       <c r="AH12" s="105" t="n">
-        <v>6405356993847.726</v>
+        <v>15883369924800.68</v>
       </c>
       <c r="AI12" s="105" t="n">
-        <v>6412729088167.57</v>
+        <v>15867791616015.79</v>
       </c>
       <c r="AJ12" s="105" t="n">
-        <v>6426101746137.92</v>
+        <v>15854421261635.06</v>
       </c>
       <c r="AK12" s="105" t="n">
-        <v>6440426838822.009</v>
+        <v>15844602381011.64</v>
       </c>
       <c r="AL12" s="105" t="n">
-        <v>6457581852987.034</v>
+        <v>15837316755446.73</v>
       </c>
       <c r="AM12" s="105" t="n">
-        <v>6476931052509.041</v>
+        <v>15833911287881.58</v>
       </c>
       <c r="AN12" s="105" t="n">
-        <v>6497548458396.054</v>
+        <v>15829008131432.27</v>
       </c>
       <c r="AO12" s="105" t="n">
-        <v>6518780712785.461</v>
+        <v>15824336223253.75</v>
       </c>
     </row>
     <row r="13">
@@ -50828,100 +50828,100 @@
         </is>
       </c>
       <c r="J17" s="105" t="n">
-        <v>12840914146561.38</v>
+        <v>2749439295402.516</v>
       </c>
       <c r="K17" s="105" t="n">
-        <v>12580319427509.39</v>
+        <v>2674635209886.117</v>
       </c>
       <c r="L17" s="105" t="n">
-        <v>12320732096848.03</v>
+        <v>2600539776807.165</v>
       </c>
       <c r="M17" s="105" t="n">
-        <v>12076456842681.95</v>
+        <v>2533590807623.267</v>
       </c>
       <c r="N17" s="105" t="n">
-        <v>11844064550456.72</v>
+        <v>2471924939748.435</v>
       </c>
       <c r="O17" s="105" t="n">
-        <v>11625798922208.85</v>
+        <v>2416411093733.839</v>
       </c>
       <c r="P17" s="105" t="n">
-        <v>11418490379877.08</v>
+        <v>2367751985502.24</v>
       </c>
       <c r="Q17" s="105" t="n">
-        <v>11235354009301.47</v>
+        <v>2326680156272.067</v>
       </c>
       <c r="R17" s="105" t="n">
-        <v>11071407135742.15</v>
+        <v>2290911198686.843</v>
       </c>
       <c r="S17" s="105" t="n">
-        <v>10925597615100.88</v>
+        <v>2264687587738.041</v>
       </c>
       <c r="T17" s="105" t="n">
-        <v>10795516101671.15</v>
+        <v>2244854749452.417</v>
       </c>
       <c r="U17" s="105" t="n">
-        <v>10673093913559.36</v>
+        <v>2230295379959.751</v>
       </c>
       <c r="V17" s="105" t="n">
-        <v>10570756776166.69</v>
+        <v>2219967445279.988</v>
       </c>
       <c r="W17" s="105" t="n">
-        <v>10481961647160.4</v>
+        <v>2212808954046.403</v>
       </c>
       <c r="X17" s="105" t="n">
-        <v>10403690437159.88</v>
+        <v>2207910043451.842</v>
       </c>
       <c r="Y17" s="105" t="n">
-        <v>10333527449484.88</v>
+        <v>2204576296140.819</v>
       </c>
       <c r="Z17" s="105" t="n">
-        <v>10270889072437.94</v>
+        <v>2202378475864.48</v>
       </c>
       <c r="AA17" s="105" t="n">
-        <v>10216196455311.56</v>
+        <v>2201054851174.678</v>
       </c>
       <c r="AB17" s="105" t="n">
-        <v>10165220483103.78</v>
+        <v>2200433419857.355</v>
       </c>
       <c r="AC17" s="105" t="n">
-        <v>10125598665803.39</v>
+        <v>2200368619949.356</v>
       </c>
       <c r="AD17" s="105" t="n">
-        <v>10092349694161.07</v>
+        <v>2200755123403.514</v>
       </c>
       <c r="AE17" s="105" t="n">
-        <v>10064577884847.76</v>
+        <v>2201505165563.235</v>
       </c>
       <c r="AF17" s="105" t="n">
-        <v>10041891596674.44</v>
+        <v>2202737818579.068</v>
       </c>
       <c r="AG17" s="105" t="n">
-        <v>10019875512862.18</v>
+        <v>2204255510361.548</v>
       </c>
       <c r="AH17" s="105" t="n">
-        <v>10006022391538.47</v>
+        <v>2206015339236.017</v>
       </c>
       <c r="AI17" s="105" t="n">
-        <v>9995500525231.457</v>
+        <v>2207987993817.956</v>
       </c>
       <c r="AJ17" s="105" t="n">
-        <v>9983927178593.559</v>
+        <v>2210145962928.76</v>
       </c>
       <c r="AK17" s="105" t="n">
-        <v>9979164156275.053</v>
+        <v>2212459499976.366</v>
       </c>
       <c r="AL17" s="105" t="n">
-        <v>9976829938440.77</v>
+        <v>2214897712918.556</v>
       </c>
       <c r="AM17" s="105" t="n">
-        <v>9972685319547.664</v>
+        <v>2217431494106.876</v>
       </c>
       <c r="AN17" s="105" t="n">
-        <v>9974052034423.498</v>
+        <v>2220029624888.417</v>
       </c>
       <c r="AO17" s="105" t="n">
-        <v>9976162828669.041</v>
+        <v>2222670440008.809</v>
       </c>
     </row>
     <row r="18">
@@ -51039,100 +51039,100 @@
         </is>
       </c>
       <c r="J19" s="105" t="n">
-        <v>129954657735.319</v>
+        <v>23727509113.31962</v>
       </c>
       <c r="K19" s="105" t="n">
-        <v>128232372441.8466</v>
+        <v>23406349775.69217</v>
       </c>
       <c r="L19" s="105" t="n">
-        <v>126478502287.5446</v>
+        <v>23070141098.4566</v>
       </c>
       <c r="M19" s="105" t="n">
-        <v>124848107865.5593</v>
+        <v>22774103755.94929</v>
       </c>
       <c r="N19" s="105" t="n">
-        <v>123337510450.3586</v>
+        <v>22497327533.73509</v>
       </c>
       <c r="O19" s="105" t="n">
-        <v>121940757056.5229</v>
+        <v>22236414581.92578</v>
       </c>
       <c r="P19" s="105" t="n">
-        <v>120592777391.6722</v>
+        <v>21989176054.73749</v>
       </c>
       <c r="Q19" s="105" t="n">
-        <v>119415983628.2141</v>
+        <v>21757242590.92054</v>
       </c>
       <c r="R19" s="105" t="n">
-        <v>118355325851.0122</v>
+        <v>21518086106.20995</v>
       </c>
       <c r="S19" s="105" t="n">
-        <v>117426397909.3681</v>
+        <v>21319876020.1844</v>
       </c>
       <c r="T19" s="105" t="n">
-        <v>116627331325.4199</v>
+        <v>21148579523.15014</v>
       </c>
       <c r="U19" s="105" t="n">
-        <v>115928322483.1588</v>
+        <v>21008136347.19313</v>
       </c>
       <c r="V19" s="105" t="n">
-        <v>115431712633.9727</v>
+        <v>20887234280.89876</v>
       </c>
       <c r="W19" s="105" t="n">
-        <v>115022194378.2452</v>
+        <v>20776930492.84235</v>
       </c>
       <c r="X19" s="105" t="n">
-        <v>114622189880.3149</v>
+        <v>20685152787.31879</v>
       </c>
       <c r="Y19" s="105" t="n">
-        <v>114243390996.2442</v>
+        <v>20617756254.86133</v>
       </c>
       <c r="Z19" s="105" t="n">
-        <v>113896940683.8777</v>
+        <v>20569977516.36637</v>
       </c>
       <c r="AA19" s="105" t="n">
-        <v>113571787797.3453</v>
+        <v>20534767806.15708</v>
       </c>
       <c r="AB19" s="105" t="n">
-        <v>113187922626.1151</v>
+        <v>20509790970.02042</v>
       </c>
       <c r="AC19" s="105" t="n">
-        <v>112851816896.31</v>
+        <v>20497092821.59621</v>
       </c>
       <c r="AD19" s="105" t="n">
-        <v>112558076803.7133</v>
+        <v>20494313512.84724</v>
       </c>
       <c r="AE19" s="105" t="n">
-        <v>112324919900.0258</v>
+        <v>20502036118.17081</v>
       </c>
       <c r="AF19" s="105" t="n">
-        <v>112185153215.2255</v>
+        <v>20540065274.74746</v>
       </c>
       <c r="AG19" s="105" t="n">
-        <v>112233777249.2225</v>
+        <v>20661600037.76436</v>
       </c>
       <c r="AH19" s="105" t="n">
-        <v>112446985398.3958</v>
+        <v>20794380534.56575</v>
       </c>
       <c r="AI19" s="105" t="n">
-        <v>112788122731.5121</v>
+        <v>20935650359.89789</v>
       </c>
       <c r="AJ19" s="105" t="n">
-        <v>113229682331.5183</v>
+        <v>21083011332.11334</v>
       </c>
       <c r="AK19" s="105" t="n">
-        <v>113851411074.3758</v>
+        <v>21233092665.46825</v>
       </c>
       <c r="AL19" s="105" t="n">
-        <v>114564266316.8232</v>
+        <v>21382234264.8891</v>
       </c>
       <c r="AM19" s="105" t="n">
-        <v>115268058758.3945</v>
+        <v>21526229566.04277</v>
       </c>
       <c r="AN19" s="105" t="n">
-        <v>115999551908.693</v>
+        <v>21664323416.2455</v>
       </c>
       <c r="AO19" s="105" t="n">
-        <v>116689448652.8357</v>
+        <v>21797244847.5839</v>
       </c>
     </row>
     <row r="20">
@@ -51978,100 +51978,100 @@
         </is>
       </c>
       <c r="J30" s="105" t="n">
-        <v>4908018655504.943</v>
+        <v>3495341342416.494</v>
       </c>
       <c r="K30" s="105" t="n">
-        <v>4810245893851.014</v>
+        <v>3396237980150.462</v>
       </c>
       <c r="L30" s="105" t="n">
-        <v>4791336636360.465</v>
+        <v>3355476090962.335</v>
       </c>
       <c r="M30" s="105" t="n">
-        <v>4795949112450.673</v>
+        <v>3330236707756.357</v>
       </c>
       <c r="N30" s="105" t="n">
-        <v>4803438127050.064</v>
+        <v>3305790845264.396</v>
       </c>
       <c r="O30" s="105" t="n">
-        <v>4813456120117.039</v>
+        <v>3285227406137.226</v>
       </c>
       <c r="P30" s="105" t="n">
-        <v>4838339036004.053</v>
+        <v>3273721260874.334</v>
       </c>
       <c r="Q30" s="105" t="n">
-        <v>4877302837169.994</v>
+        <v>3272492954061.909</v>
       </c>
       <c r="R30" s="105" t="n">
-        <v>4920483069466.065</v>
+        <v>3274704916308.955</v>
       </c>
       <c r="S30" s="105" t="n">
-        <v>4964065162864.8</v>
+        <v>3277112674950.12</v>
       </c>
       <c r="T30" s="105" t="n">
-        <v>5007913267136.383</v>
+        <v>3279903557270.888</v>
       </c>
       <c r="U30" s="105" t="n">
-        <v>5054680543029.645</v>
+        <v>3284839385981.83</v>
       </c>
       <c r="V30" s="105" t="n">
-        <v>5108235914503.73</v>
+        <v>3294544437731.425</v>
       </c>
       <c r="W30" s="105" t="n">
-        <v>5167869934242.696</v>
+        <v>3308635433488.411</v>
       </c>
       <c r="X30" s="105" t="n">
-        <v>5232528391043.82</v>
+        <v>3325654371626.016</v>
       </c>
       <c r="Y30" s="105" t="n">
-        <v>5297334787023.731</v>
+        <v>3344436280544.353</v>
       </c>
       <c r="Z30" s="105" t="n">
-        <v>5363139819404.301</v>
+        <v>3361349273168.844</v>
       </c>
       <c r="AA30" s="105" t="n">
-        <v>5418051062426.732</v>
+        <v>3372235444175.569</v>
       </c>
       <c r="AB30" s="105" t="n">
-        <v>5470841371382.11</v>
+        <v>3381332343685.088</v>
       </c>
       <c r="AC30" s="105" t="n">
-        <v>5522245254170.128</v>
+        <v>3389330833172.881</v>
       </c>
       <c r="AD30" s="105" t="n">
-        <v>5572611389860.554</v>
+        <v>3396587075077.028</v>
       </c>
       <c r="AE30" s="105" t="n">
-        <v>5622188205185.663</v>
+        <v>3403287251878.101</v>
       </c>
       <c r="AF30" s="105" t="n">
-        <v>5668459800260.363</v>
+        <v>3396067068953.433</v>
       </c>
       <c r="AG30" s="105" t="n">
-        <v>5716344358681.127</v>
+        <v>3389603690926.881</v>
       </c>
       <c r="AH30" s="105" t="n">
-        <v>5766380178864.204</v>
+        <v>3384217280533.195</v>
       </c>
       <c r="AI30" s="105" t="n">
-        <v>5818991855604.908</v>
+        <v>3380141096162.664</v>
       </c>
       <c r="AJ30" s="105" t="n">
-        <v>5874131955113.027</v>
+        <v>3377338761564.312</v>
       </c>
       <c r="AK30" s="105" t="n">
-        <v>5931610470381.384</v>
+        <v>3375672940387.149</v>
       </c>
       <c r="AL30" s="105" t="n">
-        <v>5991096379290.503</v>
+        <v>3374923628503.483</v>
       </c>
       <c r="AM30" s="105" t="n">
-        <v>6052228058799.764</v>
+        <v>3374867633176.997</v>
       </c>
       <c r="AN30" s="105" t="n">
-        <v>6114802622643.281</v>
+        <v>3375367008598.23</v>
       </c>
       <c r="AO30" s="105" t="n">
-        <v>6178745773001.818</v>
+        <v>3376355213525.014</v>
       </c>
     </row>
     <row r="31">
@@ -53153,100 +53153,100 @@
         </is>
       </c>
       <c r="J43" s="105" t="n">
-        <v>17784384368235.36</v>
+        <v>12031718869398.49</v>
       </c>
       <c r="K43" s="105" t="n">
-        <v>17718422002370.75</v>
+        <v>11942491454971.9</v>
       </c>
       <c r="L43" s="105" t="n">
-        <v>17653390966707.8</v>
+        <v>11854278244347.86</v>
       </c>
       <c r="M43" s="105" t="n">
-        <v>17586583191957.9</v>
+        <v>11764894248674.68</v>
       </c>
       <c r="N43" s="105" t="n">
-        <v>17522851732653.25</v>
+        <v>11677459304865.3</v>
       </c>
       <c r="O43" s="105" t="n">
-        <v>17467056853401.94</v>
+        <v>11594973729999.9</v>
       </c>
       <c r="P43" s="105" t="n">
-        <v>17422856661049.98</v>
+        <v>11520649123071.1</v>
       </c>
       <c r="Q43" s="105" t="n">
-        <v>17394331477498.92</v>
+        <v>11458273295347.4</v>
       </c>
       <c r="R43" s="105" t="n">
-        <v>17381796126141.64</v>
+        <v>11408167664916.06</v>
       </c>
       <c r="S43" s="105" t="n">
-        <v>17385089307869.93</v>
+        <v>11369357601694.18</v>
       </c>
       <c r="T43" s="105" t="n">
-        <v>17402278084837.25</v>
+        <v>11340311813748.51</v>
       </c>
       <c r="U43" s="105" t="n">
-        <v>17436821155601.34</v>
+        <v>11323632842842.62</v>
       </c>
       <c r="V43" s="105" t="n">
-        <v>17491502298714.02</v>
+        <v>11321207539427.4</v>
       </c>
       <c r="W43" s="105" t="n">
-        <v>17562186276945.2</v>
+        <v>11330055230528.57</v>
       </c>
       <c r="X43" s="105" t="n">
-        <v>17646392463825.11</v>
+        <v>11348230557677.03</v>
       </c>
       <c r="Y43" s="105" t="n">
-        <v>17746275750980.99</v>
+        <v>11377184994370.53</v>
       </c>
       <c r="Z43" s="105" t="n">
-        <v>17860751916833.64</v>
+        <v>11415843155210.77</v>
       </c>
       <c r="AA43" s="105" t="n">
-        <v>17987353048931.24</v>
+        <v>11462197684741.09</v>
       </c>
       <c r="AB43" s="105" t="n">
-        <v>18120804538986.33</v>
+        <v>11513196899655.11</v>
       </c>
       <c r="AC43" s="105" t="n">
-        <v>18258559138558.61</v>
+        <v>11567780344176.44</v>
       </c>
       <c r="AD43" s="105" t="n">
-        <v>18398847454224.2</v>
+        <v>11624959645617.82</v>
       </c>
       <c r="AE43" s="105" t="n">
-        <v>18540914040290.92</v>
+        <v>11684053240024.29</v>
       </c>
       <c r="AF43" s="105" t="n">
-        <v>18666438510411.64</v>
+        <v>11695106578533.28</v>
       </c>
       <c r="AG43" s="105" t="n">
-        <v>18794045337212.23</v>
+        <v>11707301454693.84</v>
       </c>
       <c r="AH43" s="105" t="n">
-        <v>18923694295251.27</v>
+        <v>11720552707283.82</v>
       </c>
       <c r="AI43" s="105" t="n">
-        <v>19055374847303.68</v>
+        <v>11734793868967.66</v>
       </c>
       <c r="AJ43" s="105" t="n">
-        <v>19189039951670.16</v>
+        <v>11749937857022.63</v>
       </c>
       <c r="AK43" s="105" t="n">
-        <v>19324608093982.7</v>
+        <v>11765880483825.68</v>
       </c>
       <c r="AL43" s="105" t="n">
-        <v>19461872795653.46</v>
+        <v>11782447165892.09</v>
       </c>
       <c r="AM43" s="105" t="n">
-        <v>19600685661602.7</v>
+        <v>11799505062562.74</v>
       </c>
       <c r="AN43" s="105" t="n">
-        <v>19740943922044.77</v>
+        <v>11816953845768.14</v>
       </c>
       <c r="AO43" s="105" t="n">
-        <v>19882569205501.2</v>
+        <v>11834711987556.54</v>
       </c>
     </row>
     <row r="44">
@@ -53374,100 +53374,100 @@
         </is>
       </c>
       <c r="J45" s="105" t="n">
-        <v>2305713228773.133</v>
+        <v>2539518210947.325</v>
       </c>
       <c r="K45" s="105" t="n">
-        <v>2327033534390.84</v>
+        <v>2546308833270.738</v>
       </c>
       <c r="L45" s="105" t="n">
-        <v>2348303413456.084</v>
+        <v>2553247400911.81</v>
       </c>
       <c r="M45" s="105" t="n">
-        <v>2368942281340.405</v>
+        <v>2559609427464.71</v>
       </c>
       <c r="N45" s="105" t="n">
-        <v>2389468583790.398</v>
+        <v>2565857110586.45</v>
       </c>
       <c r="O45" s="105" t="n">
-        <v>2410293703775.747</v>
+        <v>2572355667588.107</v>
       </c>
       <c r="P45" s="105" t="n">
-        <v>2431672825586.899</v>
+        <v>2579400953407.381</v>
       </c>
       <c r="Q45" s="105" t="n">
-        <v>2453820731165.708</v>
+        <v>2587433136551.433</v>
       </c>
       <c r="R45" s="105" t="n">
-        <v>2476341136668.164</v>
+        <v>2596276865286.631</v>
       </c>
       <c r="S45" s="105" t="n">
-        <v>2499026302687.577</v>
+        <v>2605781185712.805</v>
       </c>
       <c r="T45" s="105" t="n">
-        <v>2521838600987.182</v>
+        <v>2615924231824.936</v>
       </c>
       <c r="U45" s="105" t="n">
-        <v>2545683540808.009</v>
+        <v>2627726322489.619</v>
       </c>
       <c r="V45" s="105" t="n">
-        <v>2570841707967.946</v>
+        <v>2641398100307.223</v>
       </c>
       <c r="W45" s="105" t="n">
-        <v>2596636426650.687</v>
+        <v>2656173925899.887</v>
       </c>
       <c r="X45" s="105" t="n">
-        <v>2622516418877.008</v>
+        <v>2671442680144.11</v>
       </c>
       <c r="Y45" s="105" t="n">
-        <v>2648764542641.592</v>
+        <v>2687472412923.778</v>
       </c>
       <c r="Z45" s="105" t="n">
-        <v>2675470121948.807</v>
+        <v>2704186702792.236</v>
       </c>
       <c r="AA45" s="105" t="n">
-        <v>2702659627754.624</v>
+        <v>2721432921526.178</v>
       </c>
       <c r="AB45" s="105" t="n">
-        <v>2729948429692.642</v>
+        <v>2738786360696.128</v>
       </c>
       <c r="AC45" s="105" t="n">
-        <v>2757216686834.774</v>
+        <v>2756211031504.213</v>
       </c>
       <c r="AD45" s="105" t="n">
-        <v>2784299042815.236</v>
+        <v>2773581278043.279</v>
       </c>
       <c r="AE45" s="105" t="n">
-        <v>2811104009776.626</v>
+        <v>2790803570670.916</v>
       </c>
       <c r="AF45" s="105" t="n">
-        <v>2832891683094.623</v>
+        <v>2796651250469.37</v>
       </c>
       <c r="AG45" s="105" t="n">
-        <v>2854571563031.611</v>
+        <v>2802238917168.921</v>
       </c>
       <c r="AH45" s="105" t="n">
-        <v>2876168358775.569</v>
+        <v>2807593739462.42</v>
       </c>
       <c r="AI45" s="105" t="n">
-        <v>2897713476255.37</v>
+        <v>2812748828680.894</v>
       </c>
       <c r="AJ45" s="105" t="n">
-        <v>2919237560689.625</v>
+        <v>2817735848353.311</v>
       </c>
       <c r="AK45" s="105" t="n">
-        <v>2940771758892.154</v>
+        <v>2822586255316.625</v>
       </c>
       <c r="AL45" s="105" t="n">
-        <v>2962332612611.982</v>
+        <v>2827316879471.241</v>
       </c>
       <c r="AM45" s="105" t="n">
-        <v>2983946118250.118</v>
+        <v>2831953157418.915</v>
       </c>
       <c r="AN45" s="105" t="n">
-        <v>3005640653480.278</v>
+        <v>2836522210955.483</v>
       </c>
       <c r="AO45" s="105" t="n">
-        <v>3027440021186.232</v>
+        <v>2841046262244.99</v>
       </c>
     </row>
     <row r="46">
@@ -54007,100 +54007,100 @@
         </is>
       </c>
       <c r="J51" s="105" t="n">
-        <v>531289317988.2831</v>
+        <v>507724381294.3126</v>
       </c>
       <c r="K51" s="105" t="n">
-        <v>533824406705.6016</v>
+        <v>508305007781.5693</v>
       </c>
       <c r="L51" s="105" t="n">
-        <v>536430183169.6888</v>
+        <v>508993280718.5984</v>
       </c>
       <c r="M51" s="105" t="n">
-        <v>538995633161.3267</v>
+        <v>509641991452.5157</v>
       </c>
       <c r="N51" s="105" t="n">
-        <v>541612488515.7247</v>
+        <v>510321805230.9646</v>
       </c>
       <c r="O51" s="105" t="n">
-        <v>544375279947.2242</v>
+        <v>511090030442.8629</v>
       </c>
       <c r="P51" s="105" t="n">
-        <v>547218882600.946</v>
+        <v>511905235256.9059</v>
       </c>
       <c r="Q51" s="105" t="n">
-        <v>550102342755.3311</v>
+        <v>512781226699.3888</v>
       </c>
       <c r="R51" s="105" t="n">
-        <v>552954418525.8678</v>
+        <v>513682078211.0242</v>
       </c>
       <c r="S51" s="105" t="n">
-        <v>555792051434.412</v>
+        <v>514620817047.0353</v>
       </c>
       <c r="T51" s="105" t="n">
-        <v>558602863894.8208</v>
+        <v>515599541173.7481</v>
       </c>
       <c r="U51" s="105" t="n">
-        <v>561606113552.5131</v>
+        <v>516834881167.6575</v>
       </c>
       <c r="V51" s="105" t="n">
-        <v>564856999464.1824</v>
+        <v>518351532044.5445</v>
       </c>
       <c r="W51" s="105" t="n">
-        <v>568215999520.6052</v>
+        <v>520001838487.0499</v>
       </c>
       <c r="X51" s="105" t="n">
-        <v>571566258283.9752</v>
+        <v>521660813988.7906</v>
       </c>
       <c r="Y51" s="105" t="n">
-        <v>574950257488.0419</v>
+        <v>523374096228.3547</v>
       </c>
       <c r="Z51" s="105" t="n">
-        <v>578386037586.4064</v>
+        <v>525132282792.5008</v>
       </c>
       <c r="AA51" s="105" t="n">
-        <v>581906470801.1494</v>
+        <v>526952433393.0657</v>
       </c>
       <c r="AB51" s="105" t="n">
-        <v>585436918668.2616</v>
+        <v>528775184115.5012</v>
       </c>
       <c r="AC51" s="105" t="n">
-        <v>588973723129.8274</v>
+        <v>530623202876.2443</v>
       </c>
       <c r="AD51" s="105" t="n">
-        <v>592497573748.5802</v>
+        <v>532487943459.0104</v>
       </c>
       <c r="AE51" s="105" t="n">
-        <v>596012519034.8047</v>
+        <v>534366613492.2872</v>
       </c>
       <c r="AF51" s="105" t="n">
-        <v>600631964198.9088</v>
+        <v>535486300698.7141</v>
       </c>
       <c r="AG51" s="105" t="n">
-        <v>605228549875.8197</v>
+        <v>536556194438.5122</v>
       </c>
       <c r="AH51" s="105" t="n">
-        <v>609807519814.1768</v>
+        <v>537581504257.7205</v>
       </c>
       <c r="AI51" s="105" t="n">
-        <v>614375532884.1984</v>
+        <v>538568570362.658</v>
       </c>
       <c r="AJ51" s="105" t="n">
-        <v>618939086511.0491</v>
+        <v>539523455501.3367</v>
       </c>
       <c r="AK51" s="105" t="n">
-        <v>623504784467.1522</v>
+        <v>540452182843.5269</v>
       </c>
       <c r="AL51" s="105" t="n">
-        <v>628076133947.3903</v>
+        <v>541357974879.3802</v>
       </c>
       <c r="AM51" s="105" t="n">
-        <v>632658646729.532</v>
+        <v>542245702059.5046</v>
       </c>
       <c r="AN51" s="105" t="n">
-        <v>637258339470.6958</v>
+        <v>543120557505.5394</v>
       </c>
       <c r="AO51" s="105" t="n">
-        <v>641880258877.3696</v>
+        <v>543986796186.5022</v>
       </c>
     </row>
     <row r="52">
@@ -54338,100 +54338,100 @@
         </is>
       </c>
       <c r="J56" s="105" t="n">
-        <v>43266126028410.27</v>
+        <v>26955503722559.17</v>
       </c>
       <c r="K56" s="105" t="n">
-        <v>43439055753374.7</v>
+        <v>27160781287763.47</v>
       </c>
       <c r="L56" s="105" t="n">
-        <v>43805857099866.63</v>
+        <v>27353617383085.8</v>
       </c>
       <c r="M56" s="105" t="n">
-        <v>44323446942404.52</v>
+        <v>27575112132340.15</v>
       </c>
       <c r="N56" s="105" t="n">
-        <v>44882978615104.5</v>
+        <v>27805532804021.58</v>
       </c>
       <c r="O56" s="105" t="n">
-        <v>45471235329818.69</v>
+        <v>28061015009271.54</v>
       </c>
       <c r="P56" s="105" t="n">
-        <v>46050553443523.26</v>
+        <v>28332897325348.17</v>
       </c>
       <c r="Q56" s="105" t="n">
-        <v>46593099710101.13</v>
+        <v>28589584850388.93</v>
       </c>
       <c r="R56" s="105" t="n">
-        <v>47180930919605.33</v>
+        <v>28854954897861.52</v>
       </c>
       <c r="S56" s="105" t="n">
-        <v>47781585521885.19</v>
+        <v>29145819776107.81</v>
       </c>
       <c r="T56" s="105" t="n">
-        <v>48340484371509.79</v>
+        <v>29418100725613.23</v>
       </c>
       <c r="U56" s="105" t="n">
-        <v>48853852268985.41</v>
+        <v>29677793072577</v>
       </c>
       <c r="V56" s="105" t="n">
-        <v>49388481067281.6</v>
+        <v>29930033837951.88</v>
       </c>
       <c r="W56" s="105" t="n">
-        <v>49934870143508.45</v>
+        <v>30172377153209.59</v>
       </c>
       <c r="X56" s="105" t="n">
-        <v>50512434481696.72</v>
+        <v>30442033828772.21</v>
       </c>
       <c r="Y56" s="105" t="n">
-        <v>51136903813817.08</v>
+        <v>30752300625526.77</v>
       </c>
       <c r="Z56" s="105" t="n">
-        <v>51799310221182</v>
+        <v>31093600356507.75</v>
       </c>
       <c r="AA56" s="105" t="n">
-        <v>52470875112141.03</v>
+        <v>31435953188087.44</v>
       </c>
       <c r="AB56" s="105" t="n">
-        <v>53116266895425.87</v>
+        <v>31767433839228.35</v>
       </c>
       <c r="AC56" s="105" t="n">
-        <v>53805853183514</v>
+        <v>32108639375164.71</v>
       </c>
       <c r="AD56" s="105" t="n">
-        <v>54465249343451.19</v>
+        <v>32433941961719.85</v>
       </c>
       <c r="AE56" s="105" t="n">
-        <v>55067814181916.33</v>
+        <v>32738558374528.53</v>
       </c>
       <c r="AF56" s="105" t="n">
-        <v>55560242775548.66</v>
+        <v>32975027498414.36</v>
       </c>
       <c r="AG56" s="105" t="n">
-        <v>56022618655180.38</v>
+        <v>33213640501515.48</v>
       </c>
       <c r="AH56" s="105" t="n">
-        <v>56484232873505.81</v>
+        <v>33461520601495.26</v>
       </c>
       <c r="AI56" s="105" t="n">
-        <v>56931184762665.31</v>
+        <v>33708324617285.45</v>
       </c>
       <c r="AJ56" s="105" t="n">
-        <v>57370639702753.47</v>
+        <v>33952026790256.67</v>
       </c>
       <c r="AK56" s="105" t="n">
-        <v>57762079366507.87</v>
+        <v>34165154758868.72</v>
       </c>
       <c r="AL56" s="105" t="n">
-        <v>58103689049496.44</v>
+        <v>34345006444071.96</v>
       </c>
       <c r="AM56" s="105" t="n">
-        <v>58390864978803.83</v>
+        <v>34515545630385.02</v>
       </c>
       <c r="AN56" s="105" t="n">
-        <v>58655713202805.87</v>
+        <v>34696650863241.92</v>
       </c>
       <c r="AO56" s="105" t="n">
-        <v>58887270106595.72</v>
+        <v>34892101624612.48</v>
       </c>
     </row>
     <row r="57">
@@ -55498,100 +55498,100 @@
         </is>
       </c>
       <c r="J69" s="105" t="n">
-        <v>12342431602415.45</v>
+        <v>5947426314389.753</v>
       </c>
       <c r="K69" s="105" t="n">
-        <v>12370764065124.84</v>
+        <v>5980266300556.415</v>
       </c>
       <c r="L69" s="105" t="n">
-        <v>12391422258269.35</v>
+        <v>6011853087604.102</v>
       </c>
       <c r="M69" s="105" t="n">
-        <v>12399289670375.54</v>
+        <v>6038343339150.376</v>
       </c>
       <c r="N69" s="105" t="n">
-        <v>12401869679656.08</v>
+        <v>6061714725252.25</v>
       </c>
       <c r="O69" s="105" t="n">
-        <v>12398694918426.65</v>
+        <v>6085378654052.816</v>
       </c>
       <c r="P69" s="105" t="n">
-        <v>12393156267034.1</v>
+        <v>6107666495066.653</v>
       </c>
       <c r="Q69" s="105" t="n">
-        <v>12389200498238.27</v>
+        <v>6131739395235.585</v>
       </c>
       <c r="R69" s="105" t="n">
-        <v>12389783983249.96</v>
+        <v>6159245158823.857</v>
       </c>
       <c r="S69" s="105" t="n">
-        <v>12384358573256.19</v>
+        <v>6187668088384.284</v>
       </c>
       <c r="T69" s="105" t="n">
-        <v>12384236871750.51</v>
+        <v>6217399836160.997</v>
       </c>
       <c r="U69" s="105" t="n">
-        <v>12380270751650.16</v>
+        <v>6250139995022.338</v>
       </c>
       <c r="V69" s="105" t="n">
-        <v>12381956784898.84</v>
+        <v>6285893206418.96</v>
       </c>
       <c r="W69" s="105" t="n">
-        <v>12386850222454.51</v>
+        <v>6323739944679.751</v>
       </c>
       <c r="X69" s="105" t="n">
-        <v>12394048463950.54</v>
+        <v>6363521238638.923</v>
       </c>
       <c r="Y69" s="105" t="n">
-        <v>12412315707459.15</v>
+        <v>6405263096028.542</v>
       </c>
       <c r="Z69" s="105" t="n">
-        <v>12433701004371.46</v>
+        <v>6449468886782.542</v>
       </c>
       <c r="AA69" s="105" t="n">
-        <v>12470315904003.53</v>
+        <v>6495836765339.431</v>
       </c>
       <c r="AB69" s="105" t="n">
-        <v>12513602856847.17</v>
+        <v>6543706368170.893</v>
       </c>
       <c r="AC69" s="105" t="n">
-        <v>12562843868836.27</v>
+        <v>6592298884568.14</v>
       </c>
       <c r="AD69" s="105" t="n">
-        <v>12616319862574.66</v>
+        <v>6643226521314.714</v>
       </c>
       <c r="AE69" s="105" t="n">
-        <v>12677031193267.34</v>
+        <v>6693064148701.222</v>
       </c>
       <c r="AF69" s="105" t="n">
-        <v>12710445902008.19</v>
+        <v>6702308224145.375</v>
       </c>
       <c r="AG69" s="105" t="n">
-        <v>12744775917882.45</v>
+        <v>6712092664803.8</v>
       </c>
       <c r="AH69" s="105" t="n">
-        <v>12784136119101.07</v>
+        <v>6721532981870.733</v>
       </c>
       <c r="AI69" s="105" t="n">
-        <v>12824372566900.59</v>
+        <v>6731547052348.135</v>
       </c>
       <c r="AJ69" s="105" t="n">
-        <v>12867464529510.51</v>
+        <v>6741103880788.315</v>
       </c>
       <c r="AK69" s="105" t="n">
-        <v>12907858061801.29</v>
+        <v>6750649912749.468</v>
       </c>
       <c r="AL69" s="105" t="n">
-        <v>12948994608893.87</v>
+        <v>6760252567306.842</v>
       </c>
       <c r="AM69" s="105" t="n">
-        <v>12991565062317.27</v>
+        <v>6770498573822.169</v>
       </c>
       <c r="AN69" s="105" t="n">
-        <v>13035621892310.35</v>
+        <v>6780399079179.925</v>
       </c>
       <c r="AO69" s="105" t="n">
-        <v>13081248382706.2</v>
+        <v>6790475203032.694</v>
       </c>
     </row>
     <row r="70">
@@ -55601,100 +55601,100 @@
         </is>
       </c>
       <c r="J70" s="93" t="n">
-        <v>96257638.51134382</v>
+        <v>285504063.9212993</v>
       </c>
       <c r="K70" s="93" t="n">
-        <v>96469214.62498087</v>
+        <v>285246863.1460808</v>
       </c>
       <c r="L70" s="93" t="n">
-        <v>96732226.47728615</v>
+        <v>285152750.2519384</v>
       </c>
       <c r="M70" s="93" t="n">
-        <v>96952500.05914724</v>
+        <v>285048524.3320423</v>
       </c>
       <c r="N70" s="93" t="n">
-        <v>97183259.61356442</v>
+        <v>285017004.0759184</v>
       </c>
       <c r="O70" s="93" t="n">
-        <v>97480160.78755029</v>
+        <v>285139146.8780403</v>
       </c>
       <c r="P70" s="93" t="n">
-        <v>97750451.09003699</v>
+        <v>285267353.6790972</v>
       </c>
       <c r="Q70" s="93" t="n">
-        <v>98019824.98908046</v>
+        <v>285363824.940593</v>
       </c>
       <c r="R70" s="93" t="n">
-        <v>98313144.87096031</v>
+        <v>285494572.3560676</v>
       </c>
       <c r="S70" s="93" t="n">
-        <v>98553321.285522</v>
+        <v>285628961.5733964</v>
       </c>
       <c r="T70" s="93" t="n">
-        <v>98803676.7984928</v>
+        <v>285732973.848394</v>
       </c>
       <c r="U70" s="93" t="n">
-        <v>99009179.33842628</v>
+        <v>285834571.9316181</v>
       </c>
       <c r="V70" s="93" t="n">
-        <v>99212186.44176818</v>
+        <v>286018882.5801766</v>
       </c>
       <c r="W70" s="93" t="n">
-        <v>99440426.39719446</v>
+        <v>286210836.8939285</v>
       </c>
       <c r="X70" s="93" t="n">
-        <v>99611016.3941547</v>
+        <v>286353629.5468411</v>
       </c>
       <c r="Y70" s="93" t="n">
-        <v>99823050.72686489</v>
+        <v>286585787.95493</v>
       </c>
       <c r="Z70" s="93" t="n">
-        <v>100002297.7377691</v>
+        <v>286858417.2116723</v>
       </c>
       <c r="AA70" s="93" t="n">
-        <v>100235078.8946934</v>
+        <v>287141671.5232498</v>
       </c>
       <c r="AB70" s="93" t="n">
-        <v>100467633.9993873</v>
+        <v>287486943.5706865</v>
       </c>
       <c r="AC70" s="93" t="n">
-        <v>100658287.9765714</v>
+        <v>287816397.4310999</v>
       </c>
       <c r="AD70" s="93" t="n">
-        <v>100885998.3000974</v>
+        <v>288216070.2414265</v>
       </c>
       <c r="AE70" s="93" t="n">
-        <v>101111643.615885</v>
+        <v>288603637.9649256</v>
       </c>
       <c r="AF70" s="93" t="n">
-        <v>101602875.4281886</v>
+        <v>289119322.7600343</v>
       </c>
       <c r="AG70" s="93" t="n">
-        <v>102043655.9075322</v>
+        <v>289652368.9630917</v>
       </c>
       <c r="AH70" s="93" t="n">
-        <v>102518776.3113624</v>
+        <v>290116477.7714691</v>
       </c>
       <c r="AI70" s="93" t="n">
-        <v>102987601.0969874</v>
+        <v>290604390.2369787</v>
       </c>
       <c r="AJ70" s="93" t="n">
-        <v>103494283.1333956</v>
+        <v>291029920.1815646</v>
       </c>
       <c r="AK70" s="93" t="n">
-        <v>103954145.3304741</v>
+        <v>291441026.8672133</v>
       </c>
       <c r="AL70" s="93" t="n">
-        <v>104410501.0316841</v>
+        <v>291839460.5476866</v>
       </c>
       <c r="AM70" s="93" t="n">
-        <v>104864255.5686085</v>
+        <v>292272940.4317467</v>
       </c>
       <c r="AN70" s="93" t="n">
-        <v>105316386.9770795</v>
+        <v>292654180.1346804</v>
       </c>
       <c r="AO70" s="93" t="n">
-        <v>105767701.7486377</v>
+        <v>293030487.2807881</v>
       </c>
     </row>
     <row r="71">
@@ -55709,100 +55709,100 @@
         </is>
       </c>
       <c r="J71" s="105" t="n">
-        <v>18667168006683.53</v>
+        <v>32770006506248.84</v>
       </c>
       <c r="K71" s="105" t="n">
-        <v>18695968715525.66</v>
+        <v>32928813933710.42</v>
       </c>
       <c r="L71" s="105" t="n">
-        <v>18717137481398.64</v>
+        <v>33075249996418.68</v>
       </c>
       <c r="M71" s="105" t="n">
-        <v>18720902533868.2</v>
+        <v>33185676072876.27</v>
       </c>
       <c r="N71" s="105" t="n">
-        <v>18715786524369.62</v>
+        <v>33265221767903.6</v>
       </c>
       <c r="O71" s="105" t="n">
-        <v>18702873470745.46</v>
+        <v>33341600121278.69</v>
       </c>
       <c r="P71" s="105" t="n">
-        <v>18688253217554.69</v>
+        <v>33395182778951.69</v>
       </c>
       <c r="Q71" s="105" t="n">
-        <v>18683918993121.62</v>
+        <v>33451216143477.69</v>
       </c>
       <c r="R71" s="105" t="n">
-        <v>18697591096021.56</v>
+        <v>33518184467507.95</v>
       </c>
       <c r="S71" s="105" t="n">
-        <v>18708228710565.53</v>
+        <v>33579138812607.86</v>
       </c>
       <c r="T71" s="105" t="n">
-        <v>18736751264864.16</v>
+        <v>33634282443437.98</v>
       </c>
       <c r="U71" s="105" t="n">
-        <v>18766649854633.91</v>
+        <v>33691843186508.8</v>
       </c>
       <c r="V71" s="105" t="n">
-        <v>18812152904248.43</v>
+        <v>33760139766661.29</v>
       </c>
       <c r="W71" s="105" t="n">
-        <v>18868659186541.97</v>
+        <v>33834638286462.3</v>
       </c>
       <c r="X71" s="105" t="n">
-        <v>18930408004301.5</v>
+        <v>33915305846021.19</v>
       </c>
       <c r="Y71" s="105" t="n">
-        <v>19007834637853.85</v>
+        <v>34012847339806.16</v>
       </c>
       <c r="Z71" s="105" t="n">
-        <v>19082897594306.18</v>
+        <v>34131026487478.42</v>
       </c>
       <c r="AA71" s="105" t="n">
-        <v>19181145945891.28</v>
+        <v>34262033931770.94</v>
       </c>
       <c r="AB71" s="105" t="n">
-        <v>19285478360795.41</v>
+        <v>34421012847324.74</v>
       </c>
       <c r="AC71" s="105" t="n">
-        <v>19391332056528.59</v>
+        <v>34596592027073.5</v>
       </c>
       <c r="AD71" s="105" t="n">
-        <v>19501752804466.16</v>
+        <v>34800081440986.5</v>
       </c>
       <c r="AE71" s="105" t="n">
-        <v>19622346885675.79</v>
+        <v>35013127179859.6</v>
       </c>
       <c r="AF71" s="105" t="n">
-        <v>19676882159431.44</v>
+        <v>34950840068236.16</v>
       </c>
       <c r="AG71" s="105" t="n">
-        <v>19730593202782.43</v>
+        <v>34907594219679.86</v>
       </c>
       <c r="AH71" s="105" t="n">
-        <v>19795405999266.63</v>
+        <v>34873179863511.12</v>
       </c>
       <c r="AI71" s="105" t="n">
-        <v>19865887818852.77</v>
+        <v>34854105747260.21</v>
       </c>
       <c r="AJ71" s="105" t="n">
-        <v>19948844241507.9</v>
+        <v>34839804618554.27</v>
       </c>
       <c r="AK71" s="105" t="n">
-        <v>20030554469642.06</v>
+        <v>34832177396152.27</v>
       </c>
       <c r="AL71" s="105" t="n">
-        <v>20114732716289.79</v>
+        <v>34828988856584.13</v>
       </c>
       <c r="AM71" s="105" t="n">
-        <v>20198865917826.18</v>
+        <v>34832492126172.69</v>
       </c>
       <c r="AN71" s="105" t="n">
-        <v>20280181334149.91</v>
+        <v>34832924663920.29</v>
       </c>
       <c r="AO71" s="105" t="n">
-        <v>20356958489067.05</v>
+        <v>34833446854658.15</v>
       </c>
     </row>
     <row r="72">
@@ -55817,100 +55817,100 @@
         </is>
       </c>
       <c r="J72" s="105" t="n">
-        <v>1885075009059.26</v>
+        <v>480622355959.2045</v>
       </c>
       <c r="K72" s="105" t="n">
-        <v>1880531345739.29</v>
+        <v>483897122387.8137</v>
       </c>
       <c r="L72" s="105" t="n">
-        <v>1874495817812.658</v>
+        <v>486989577772.9589</v>
       </c>
       <c r="M72" s="105" t="n">
-        <v>1865899925218.335</v>
+        <v>489338916999.5127</v>
       </c>
       <c r="N72" s="105" t="n">
-        <v>1854673432086.505</v>
+        <v>491020713516.1518</v>
       </c>
       <c r="O72" s="105" t="n">
-        <v>1840209223273.595</v>
+        <v>492336459606.8426</v>
       </c>
       <c r="P72" s="105" t="n">
-        <v>1821735191064.329</v>
+        <v>492672609986.0844</v>
       </c>
       <c r="Q72" s="105" t="n">
-        <v>1799267285739.988</v>
+        <v>492129927885.8305</v>
       </c>
       <c r="R72" s="105" t="n">
-        <v>1771685368303.072</v>
+        <v>490584808866.9811</v>
       </c>
       <c r="S72" s="105" t="n">
-        <v>1735042102393.11</v>
+        <v>487392549217.3026</v>
       </c>
       <c r="T72" s="105" t="n">
-        <v>1690538280683.184</v>
+        <v>482400813970.243</v>
       </c>
       <c r="U72" s="105" t="n">
-        <v>1635996731965.826</v>
+        <v>475686430304.5978</v>
       </c>
       <c r="V72" s="105" t="n">
-        <v>1573570974457.601</v>
+        <v>467405824195.0483</v>
       </c>
       <c r="W72" s="105" t="n">
-        <v>1504695913232.387</v>
+        <v>457814040442.2307</v>
       </c>
       <c r="X72" s="105" t="n">
-        <v>1429950482975.95</v>
+        <v>447143472994.8143</v>
       </c>
       <c r="Y72" s="105" t="n">
-        <v>1351000937980.449</v>
+        <v>435711411823.3755</v>
       </c>
       <c r="Z72" s="105" t="n">
-        <v>1267553439458.549</v>
+        <v>423882854975.8056</v>
       </c>
       <c r="AA72" s="105" t="n">
-        <v>1183226731384.256</v>
+        <v>411925953692.0413</v>
       </c>
       <c r="AB72" s="105" t="n">
-        <v>1097769705521.69</v>
+        <v>400050705962.6569</v>
       </c>
       <c r="AC72" s="105" t="n">
-        <v>1011429601972.372</v>
+        <v>388139354524.6208</v>
       </c>
       <c r="AD72" s="105" t="n">
-        <v>925354884971.7411</v>
+        <v>376289094065.915</v>
       </c>
       <c r="AE72" s="105" t="n">
-        <v>840443973845.4902</v>
+        <v>364055260349.27</v>
       </c>
       <c r="AF72" s="105" t="n">
-        <v>753776982896.7524</v>
+        <v>348723267077.4051</v>
       </c>
       <c r="AG72" s="105" t="n">
-        <v>670086982558.8706</v>
+        <v>333353120828.7671</v>
       </c>
       <c r="AH72" s="105" t="n">
-        <v>590385943561.8242</v>
+        <v>317830823217.6556</v>
       </c>
       <c r="AI72" s="105" t="n">
-        <v>514945737921.9691</v>
+        <v>302372721379.9983</v>
       </c>
       <c r="AJ72" s="105" t="n">
-        <v>444694997950.7062</v>
+        <v>287098390963.5801</v>
       </c>
       <c r="AK72" s="105" t="n">
-        <v>380061253951.9631</v>
+        <v>272278541247.8315</v>
       </c>
       <c r="AL72" s="105" t="n">
-        <v>321904150642.8547</v>
+        <v>258087516832.3843</v>
       </c>
       <c r="AM72" s="105" t="n">
-        <v>270556368393.598</v>
+        <v>244692025958.4505</v>
       </c>
       <c r="AN72" s="105" t="n">
-        <v>225973113907.5413</v>
+        <v>232107114048.1776</v>
       </c>
       <c r="AO72" s="105" t="n">
-        <v>187885573767.6655</v>
+        <v>220470169892.289</v>
       </c>
     </row>
     <row r="73">
@@ -56028,100 +56028,100 @@
         </is>
       </c>
       <c r="J74" s="105" t="n">
-        <v>3244976110777.311</v>
+        <v>3855033002205.657</v>
       </c>
       <c r="K74" s="105" t="n">
-        <v>3238623360739.912</v>
+        <v>3870692431285.042</v>
       </c>
       <c r="L74" s="105" t="n">
-        <v>3230514504966.11</v>
+        <v>3884296079792.52</v>
       </c>
       <c r="M74" s="105" t="n">
-        <v>3218996998152.323</v>
+        <v>3893592105287.977</v>
       </c>
       <c r="N74" s="105" t="n">
-        <v>3206132017618.063</v>
+        <v>3899052238954.522</v>
       </c>
       <c r="O74" s="105" t="n">
-        <v>3192288029430.012</v>
+        <v>3903445157401.88</v>
       </c>
       <c r="P74" s="105" t="n">
-        <v>3177043244213.917</v>
+        <v>3905072318377.831</v>
       </c>
       <c r="Q74" s="105" t="n">
-        <v>3162919027004.747</v>
+        <v>3906595382822.245</v>
       </c>
       <c r="R74" s="105" t="n">
-        <v>3150246048190.901</v>
+        <v>3909054808045.458</v>
       </c>
       <c r="S74" s="105" t="n">
-        <v>3135724732141.943</v>
+        <v>3911200601326.438</v>
       </c>
       <c r="T74" s="105" t="n">
-        <v>3122834888750.704</v>
+        <v>3912508075608.942</v>
       </c>
       <c r="U74" s="105" t="n">
-        <v>3108302798012.378</v>
+        <v>3913413813084.872</v>
       </c>
       <c r="V74" s="105" t="n">
-        <v>3095027481681.69</v>
+        <v>3916289666305.884</v>
       </c>
       <c r="W74" s="105" t="n">
-        <v>3084082154486.646</v>
+        <v>3920252471925.146</v>
       </c>
       <c r="X74" s="105" t="n">
-        <v>3073477116292.745</v>
+        <v>3924595643208.481</v>
       </c>
       <c r="Y74" s="105" t="n">
-        <v>3066364015314.106</v>
+        <v>3931889417841.08</v>
       </c>
       <c r="Z74" s="105" t="n">
-        <v>3061035554172.48</v>
+        <v>3942607516660.48</v>
       </c>
       <c r="AA74" s="105" t="n">
-        <v>3062080880498.556</v>
+        <v>3955877338812.424</v>
       </c>
       <c r="AB74" s="105" t="n">
-        <v>3067525933236.674</v>
+        <v>3974520578584.054</v>
       </c>
       <c r="AC74" s="105" t="n">
-        <v>3075474343076.671</v>
+        <v>3995873671968.592</v>
       </c>
       <c r="AD74" s="105" t="n">
-        <v>3086114832840.551</v>
+        <v>4020047921581.982</v>
       </c>
       <c r="AE74" s="105" t="n">
-        <v>3098815918821.968</v>
+        <v>4044224485472.311</v>
       </c>
       <c r="AF74" s="105" t="n">
-        <v>3107195108626.88</v>
+        <v>4039786199529.428</v>
       </c>
       <c r="AG74" s="105" t="n">
-        <v>3114256568145.978</v>
+        <v>4035096756956.545</v>
       </c>
       <c r="AH74" s="105" t="n">
-        <v>3121318628055.231</v>
+        <v>4028450847435.18</v>
       </c>
       <c r="AI74" s="105" t="n">
-        <v>3126237387141.899</v>
+        <v>4021256794545.08</v>
       </c>
       <c r="AJ74" s="105" t="n">
-        <v>3130274340273.38</v>
+        <v>4012945297028.467</v>
       </c>
       <c r="AK74" s="105" t="n">
-        <v>3131406094248.269</v>
+        <v>4004857743840.758</v>
       </c>
       <c r="AL74" s="105" t="n">
-        <v>3131835614437.762</v>
+        <v>3997416564185.508</v>
       </c>
       <c r="AM74" s="105" t="n">
-        <v>3132272033049.788</v>
+        <v>3991398783580.003</v>
       </c>
       <c r="AN74" s="105" t="n">
-        <v>3132758708546.386</v>
+        <v>3985522042225.387</v>
       </c>
       <c r="AO74" s="105" t="n">
-        <v>3133333943949.499</v>
+        <v>3980413660012.082</v>
       </c>
     </row>
     <row r="75">
@@ -56131,100 +56131,100 @@
         </is>
       </c>
       <c r="J75" s="93" t="n">
-        <v>254411916342.1003</v>
+        <v>22570063959.29704</v>
       </c>
       <c r="K75" s="93" t="n">
-        <v>254192532737.3963</v>
+        <v>22604280503.22984</v>
       </c>
       <c r="L75" s="93" t="n">
-        <v>253793369380.9022</v>
+        <v>22649835010.40761</v>
       </c>
       <c r="M75" s="93" t="n">
-        <v>253068275846.105</v>
+        <v>22692460131.15878</v>
       </c>
       <c r="N75" s="93" t="n">
-        <v>252044557706.0436</v>
+        <v>22738740214.23682</v>
       </c>
       <c r="O75" s="93" t="n">
-        <v>250617880797.5579</v>
+        <v>22795038628.21255</v>
       </c>
       <c r="P75" s="93" t="n">
-        <v>248611869496.0735</v>
+        <v>22850327690.71909</v>
       </c>
       <c r="Q75" s="93" t="n">
-        <v>246025042279.4339</v>
+        <v>22901264073.85751</v>
       </c>
       <c r="R75" s="93" t="n">
-        <v>242665862788.4396</v>
+        <v>22952105287.73736</v>
       </c>
       <c r="S75" s="93" t="n">
-        <v>238082750891.077</v>
+        <v>22999303973.72171</v>
       </c>
       <c r="T75" s="93" t="n">
-        <v>232451211176.7766</v>
+        <v>23040261446.93945</v>
       </c>
       <c r="U75" s="93" t="n">
-        <v>225499733658.1951</v>
+        <v>23076978300.58265</v>
       </c>
       <c r="V75" s="93" t="n">
-        <v>217531964553.3769</v>
+        <v>23116777218.95366</v>
       </c>
       <c r="W75" s="93" t="n">
-        <v>208788534069.8318</v>
+        <v>23153784566.54066</v>
       </c>
       <c r="X75" s="93" t="n">
-        <v>199274048366.9418</v>
+        <v>23184200533.0661</v>
       </c>
       <c r="Y75" s="93" t="n">
-        <v>189232887247.6469</v>
+        <v>23220160384.69251</v>
       </c>
       <c r="Z75" s="93" t="n">
-        <v>178618860731.6172</v>
+        <v>23259127772.14606</v>
       </c>
       <c r="AA75" s="93" t="n">
-        <v>167818921826.0599</v>
+        <v>23299496539.16866</v>
       </c>
       <c r="AB75" s="93" t="n">
-        <v>156815499158.362</v>
+        <v>23346671638.93092</v>
       </c>
       <c r="AC75" s="93" t="n">
-        <v>145642778938.195</v>
+        <v>23394329147.8218</v>
       </c>
       <c r="AD75" s="93" t="n">
-        <v>134496759883.9189</v>
+        <v>23449146721.99811</v>
       </c>
       <c r="AE75" s="93" t="n">
-        <v>123534703774.2169</v>
+        <v>23503800649.14286</v>
       </c>
       <c r="AF75" s="93" t="n">
-        <v>112737931885.0257</v>
+        <v>23535583340.03068</v>
       </c>
       <c r="AG75" s="93" t="n">
-        <v>102422975676.151</v>
+        <v>23569785034.45189</v>
       </c>
       <c r="AH75" s="93" t="n">
-        <v>92798250830.01904</v>
+        <v>23599184784.39322</v>
       </c>
       <c r="AI75" s="93" t="n">
-        <v>83935367973.10646</v>
+        <v>23631269824.64017</v>
       </c>
       <c r="AJ75" s="93" t="n">
-        <v>75971316030.68185</v>
+        <v>23659043302.18174</v>
       </c>
       <c r="AK75" s="93" t="n">
-        <v>68913436801.98323</v>
+        <v>23686435852.8623</v>
       </c>
       <c r="AL75" s="93" t="n">
-        <v>62836119264.98311</v>
+        <v>23713606985.18348</v>
       </c>
       <c r="AM75" s="93" t="n">
-        <v>57740875734.95475</v>
+        <v>23744427342.65216</v>
       </c>
       <c r="AN75" s="93" t="n">
-        <v>53585212573.88683</v>
+        <v>23771770464.95282</v>
       </c>
       <c r="AO75" s="93" t="n">
-        <v>50295691576.21679</v>
+        <v>23799421935.61566</v>
       </c>
     </row>
     <row r="76">
@@ -56342,100 +56342,100 @@
         </is>
       </c>
       <c r="J77" s="105" t="n">
-        <v>1960613029607.729</v>
+        <v>5218551938791.226</v>
       </c>
       <c r="K77" s="105" t="n">
-        <v>1964229611361.154</v>
+        <v>5232239670111.191</v>
       </c>
       <c r="L77" s="105" t="n">
-        <v>1968593682823.075</v>
+        <v>5247911241682.299</v>
       </c>
       <c r="M77" s="105" t="n">
-        <v>1972533312555.802</v>
+        <v>5262751149648.781</v>
       </c>
       <c r="N77" s="105" t="n">
-        <v>1976828361214.747</v>
+        <v>5277019567416.8</v>
       </c>
       <c r="O77" s="105" t="n">
-        <v>1981574097887.933</v>
+        <v>5294503878632.67</v>
       </c>
       <c r="P77" s="105" t="n">
-        <v>1986367713485.89</v>
+        <v>5312462885984.784</v>
       </c>
       <c r="Q77" s="105" t="n">
-        <v>1992438823129.91</v>
+        <v>5334790766058.071</v>
       </c>
       <c r="R77" s="105" t="n">
-        <v>1999930218261.624</v>
+        <v>5362843837016.074</v>
       </c>
       <c r="S77" s="105" t="n">
-        <v>2006571593020.442</v>
+        <v>5394268980529.718</v>
       </c>
       <c r="T77" s="105" t="n">
-        <v>2014280918735.303</v>
+        <v>5428329933400.551</v>
       </c>
       <c r="U77" s="105" t="n">
-        <v>2021131473465.192</v>
+        <v>5464832784791.215</v>
       </c>
       <c r="V77" s="105" t="n">
-        <v>2028361487141.797</v>
+        <v>5504897703641.076</v>
       </c>
       <c r="W77" s="105" t="n">
-        <v>2036016132491.644</v>
+        <v>5545014265452.01</v>
       </c>
       <c r="X77" s="105" t="n">
-        <v>2042596978834.004</v>
+        <v>5582979439794.785</v>
       </c>
       <c r="Y77" s="105" t="n">
-        <v>2049454304967.457</v>
+        <v>5620449232894.243</v>
       </c>
       <c r="Z77" s="105" t="n">
-        <v>2054728041668.883</v>
+        <v>5656607770921.783</v>
       </c>
       <c r="AA77" s="105" t="n">
-        <v>2060736646513.604</v>
+        <v>5688328530851.271</v>
       </c>
       <c r="AB77" s="105" t="n">
-        <v>2065961414825.672</v>
+        <v>5720637976728.746</v>
       </c>
       <c r="AC77" s="105" t="n">
-        <v>2069781400444.234</v>
+        <v>5751381742688.375</v>
       </c>
       <c r="AD77" s="105" t="n">
-        <v>2073327369245.055</v>
+        <v>5783588667570.329</v>
       </c>
       <c r="AE77" s="105" t="n">
-        <v>2077171726017.124</v>
+        <v>5815719981005.168</v>
       </c>
       <c r="AF77" s="105" t="n">
-        <v>2077264821186.458</v>
+        <v>5803513030564.475</v>
       </c>
       <c r="AG77" s="105" t="n">
-        <v>2077146405020.238</v>
+        <v>5794010826013.354</v>
       </c>
       <c r="AH77" s="105" t="n">
-        <v>2078559554294.958</v>
+        <v>5785620422812.798</v>
       </c>
       <c r="AI77" s="105" t="n">
-        <v>2080951823312.656</v>
+        <v>5779945922887.063</v>
       </c>
       <c r="AJ77" s="105" t="n">
-        <v>2085291295104.358</v>
+        <v>5775075684661.064</v>
       </c>
       <c r="AK77" s="105" t="n">
-        <v>2089939835114.427</v>
+        <v>5771499093765.497</v>
       </c>
       <c r="AL77" s="105" t="n">
-        <v>2095506694015.66</v>
+        <v>5768845257441.034</v>
       </c>
       <c r="AM77" s="105" t="n">
-        <v>2101785573330.749</v>
+        <v>5767604793812.254</v>
       </c>
       <c r="AN77" s="105" t="n">
-        <v>2108475989810.64</v>
+        <v>5765818787302.066</v>
       </c>
       <c r="AO77" s="105" t="n">
-        <v>2115365926665.481</v>
+        <v>5764117014473.059</v>
       </c>
     </row>
     <row r="78">
@@ -56668,100 +56668,100 @@
         </is>
       </c>
       <c r="J82" s="105" t="n">
-        <v>4166919160142.436</v>
+        <v>1001501080317.151</v>
       </c>
       <c r="K82" s="105" t="n">
-        <v>4082355310913.643</v>
+        <v>974253207421.0006</v>
       </c>
       <c r="L82" s="105" t="n">
-        <v>3998118362553.335</v>
+        <v>947263465767.412</v>
       </c>
       <c r="M82" s="105" t="n">
-        <v>3918850233717.983</v>
+        <v>922876869898.2433</v>
       </c>
       <c r="N82" s="105" t="n">
-        <v>3843438165379.995</v>
+        <v>900414677916.551</v>
       </c>
       <c r="O82" s="105" t="n">
-        <v>3772610246279.694</v>
+        <v>880193399763.895</v>
       </c>
       <c r="P82" s="105" t="n">
-        <v>3705337937840.907</v>
+        <v>862469004268.8925</v>
       </c>
       <c r="Q82" s="105" t="n">
-        <v>3645909579177.297</v>
+        <v>847508324317.3833</v>
       </c>
       <c r="R82" s="105" t="n">
-        <v>3592708275836.856</v>
+        <v>834479249726.3124</v>
       </c>
       <c r="S82" s="105" t="n">
-        <v>3545392603575.782</v>
+        <v>824927129503.4882</v>
       </c>
       <c r="T82" s="105" t="n">
-        <v>3503180721734.346</v>
+        <v>817702889636.8282</v>
       </c>
       <c r="U82" s="105" t="n">
-        <v>3463454316320.585</v>
+        <v>812399544951.2328</v>
       </c>
       <c r="V82" s="105" t="n">
-        <v>3430245576371.972</v>
+        <v>808637527816.8579</v>
       </c>
       <c r="W82" s="105" t="n">
-        <v>3401431262985.825</v>
+        <v>806030000996.4386</v>
       </c>
       <c r="X82" s="105" t="n">
-        <v>3376031996164.464</v>
+        <v>804245541066.36</v>
       </c>
       <c r="Y82" s="105" t="n">
-        <v>3353263874336.153</v>
+        <v>803031202004.9097</v>
       </c>
       <c r="Z82" s="105" t="n">
-        <v>3332937513572.575</v>
+        <v>802230631726.8979</v>
       </c>
       <c r="AA82" s="105" t="n">
-        <v>3315189578213.685</v>
+        <v>801748492856.2605</v>
       </c>
       <c r="AB82" s="105" t="n">
-        <v>3298647706437.652</v>
+        <v>801522132471.915</v>
       </c>
       <c r="AC82" s="105" t="n">
-        <v>3285790295525.603</v>
+        <v>801498528685.5092</v>
       </c>
       <c r="AD82" s="105" t="n">
-        <v>3275000894131.737</v>
+        <v>801639315073.3129</v>
       </c>
       <c r="AE82" s="105" t="n">
-        <v>3265988850049.937</v>
+        <v>801912522790.4279</v>
       </c>
       <c r="AF82" s="105" t="n">
-        <v>3258627074417.534</v>
+        <v>802361524639.306</v>
       </c>
       <c r="AG82" s="105" t="n">
-        <v>3251482782319.514</v>
+        <v>802914353706.0482</v>
       </c>
       <c r="AH82" s="105" t="n">
-        <v>3246987398578.71</v>
+        <v>803555382777.6488</v>
       </c>
       <c r="AI82" s="105" t="n">
-        <v>3243573018121.465</v>
+        <v>804273934992.3524</v>
       </c>
       <c r="AJ82" s="105" t="n">
-        <v>3239817428815.128</v>
+        <v>805059989225.0736</v>
       </c>
       <c r="AK82" s="105" t="n">
-        <v>3238271812301.177</v>
+        <v>805902710086.8892</v>
       </c>
       <c r="AL82" s="105" t="n">
-        <v>3237514350884.752</v>
+        <v>806790844951.2338</v>
       </c>
       <c r="AM82" s="105" t="n">
-        <v>3236169408330.036</v>
+        <v>807713791168.535</v>
       </c>
       <c r="AN82" s="105" t="n">
-        <v>3236612911832.791</v>
+        <v>808660177142.1658</v>
       </c>
       <c r="AO82" s="105" t="n">
-        <v>3237297871554.854</v>
+        <v>809622111162.8267</v>
       </c>
     </row>
     <row r="83">
@@ -56879,100 +56879,100 @@
         </is>
       </c>
       <c r="J84" s="105" t="n">
-        <v>42170716748.54722</v>
+        <v>8642898953.964993</v>
       </c>
       <c r="K84" s="105" t="n">
-        <v>41611829467.884</v>
+        <v>8525914584.051581</v>
       </c>
       <c r="L84" s="105" t="n">
-        <v>41042692795.29594</v>
+        <v>8403448394.662908</v>
       </c>
       <c r="M84" s="105" t="n">
-        <v>40513624406.70468</v>
+        <v>8295614874.268023</v>
       </c>
       <c r="N84" s="105" t="n">
-        <v>40023430543.49384</v>
+        <v>8194797341.756166</v>
       </c>
       <c r="O84" s="105" t="n">
-        <v>39570179442.18291</v>
+        <v>8099758108.286743</v>
       </c>
       <c r="P84" s="105" t="n">
-        <v>39132755577.43006</v>
+        <v>8009699872.598784</v>
       </c>
       <c r="Q84" s="105" t="n">
-        <v>38750882104.51982</v>
+        <v>7925216605.42399</v>
       </c>
       <c r="R84" s="105" t="n">
-        <v>38406695143.70593</v>
+        <v>7838102306.081935</v>
       </c>
       <c r="S84" s="105" t="n">
-        <v>38105254950.72209</v>
+        <v>7765902997.802503</v>
       </c>
       <c r="T84" s="105" t="n">
-        <v>37845955198.31506</v>
+        <v>7703507138.719082</v>
       </c>
       <c r="U84" s="105" t="n">
-        <v>37619124514.40251</v>
+        <v>7652349801.774307</v>
       </c>
       <c r="V84" s="105" t="n">
-        <v>37457972973.93816</v>
+        <v>7608310440.654801</v>
       </c>
       <c r="W84" s="105" t="n">
-        <v>37325082943.93388</v>
+        <v>7568131571.062632</v>
       </c>
       <c r="X84" s="105" t="n">
-        <v>37195280159.83727</v>
+        <v>7534700947.08611</v>
       </c>
       <c r="Y84" s="105" t="n">
-        <v>37072358667.6554</v>
+        <v>7510151323.394237</v>
       </c>
       <c r="Z84" s="105" t="n">
-        <v>36959934394.106</v>
+        <v>7492747608.280794</v>
       </c>
       <c r="AA84" s="105" t="n">
-        <v>36854421205.76105</v>
+        <v>7479922243.17045</v>
       </c>
       <c r="AB84" s="105" t="n">
-        <v>36729855686.62012</v>
+        <v>7470824268.75232</v>
       </c>
       <c r="AC84" s="105" t="n">
-        <v>36620788264.36549</v>
+        <v>7466198885.902033</v>
       </c>
       <c r="AD84" s="105" t="n">
-        <v>36525468631.66856</v>
+        <v>7465186504.679692</v>
       </c>
       <c r="AE84" s="105" t="n">
-        <v>36449808444.37925</v>
+        <v>7467999513.712968</v>
       </c>
       <c r="AF84" s="105" t="n">
-        <v>36404453692.35793</v>
+        <v>7481851880.433249</v>
       </c>
       <c r="AG84" s="105" t="n">
-        <v>36420232352.39672</v>
+        <v>7526121705.433948</v>
       </c>
       <c r="AH84" s="105" t="n">
-        <v>36489419102.7907</v>
+        <v>7574487861.840458</v>
       </c>
       <c r="AI84" s="105" t="n">
-        <v>36600119296.98074</v>
+        <v>7625946311.176995</v>
       </c>
       <c r="AJ84" s="105" t="n">
-        <v>36743406849.30065</v>
+        <v>7679623500.237739</v>
       </c>
       <c r="AK84" s="105" t="n">
-        <v>36945159885.06234</v>
+        <v>7734291598.472064</v>
       </c>
       <c r="AL84" s="105" t="n">
-        <v>37176483771.68436</v>
+        <v>7788617392.531227</v>
       </c>
       <c r="AM84" s="105" t="n">
-        <v>37404866749.4128</v>
+        <v>7841068614.097433</v>
       </c>
       <c r="AN84" s="105" t="n">
-        <v>37642238698.84738</v>
+        <v>7891370193.912071</v>
       </c>
       <c r="AO84" s="105" t="n">
-        <v>37866112476.74799</v>
+        <v>7939787686.636975</v>
       </c>
     </row>
     <row r="85">
@@ -57818,100 +57818,100 @@
         </is>
       </c>
       <c r="J95" s="105" t="n">
-        <v>1592668305428.757</v>
+        <v>1273200734550.074</v>
       </c>
       <c r="K95" s="105" t="n">
-        <v>1560940720521.19</v>
+        <v>1237101692633.251</v>
       </c>
       <c r="L95" s="105" t="n">
-        <v>1554804603852.071</v>
+        <v>1222253910350.537</v>
       </c>
       <c r="M95" s="105" t="n">
-        <v>1556301367616.444</v>
+        <v>1213060301461.047</v>
       </c>
       <c r="N95" s="105" t="n">
-        <v>1558731577652.008</v>
+        <v>1204155737633.825</v>
       </c>
       <c r="O95" s="105" t="n">
-        <v>1561982449574.404</v>
+        <v>1196665371676.179</v>
       </c>
       <c r="P95" s="105" t="n">
-        <v>1570057038173.5</v>
+        <v>1192474183701.838</v>
       </c>
       <c r="Q95" s="105" t="n">
-        <v>1582700920671.058</v>
+        <v>1192026764985.715</v>
       </c>
       <c r="R95" s="105" t="n">
-        <v>1596713049032.035</v>
+        <v>1192832486568.2</v>
       </c>
       <c r="S95" s="105" t="n">
-        <v>1610855582651.491</v>
+        <v>1193709528256.047</v>
       </c>
       <c r="T95" s="105" t="n">
-        <v>1625084437680.018</v>
+        <v>1194726125226.912</v>
       </c>
       <c r="U95" s="105" t="n">
-        <v>1640260573565.911</v>
+        <v>1196524032820.121</v>
       </c>
       <c r="V95" s="105" t="n">
-        <v>1657639468944.919</v>
+        <v>1200059160810.765</v>
       </c>
       <c r="W95" s="105" t="n">
-        <v>1676990905813.855</v>
+        <v>1205191897327.975</v>
       </c>
       <c r="X95" s="105" t="n">
-        <v>1697972789146.671</v>
+        <v>1211391155831.032</v>
       </c>
       <c r="Y95" s="105" t="n">
-        <v>1719002679232.866</v>
+        <v>1218232587865.406</v>
       </c>
       <c r="Z95" s="105" t="n">
-        <v>1740356630137.819</v>
+        <v>1224393255028.76</v>
       </c>
       <c r="AA95" s="105" t="n">
-        <v>1758175510323.906</v>
+        <v>1228358613362.725</v>
       </c>
       <c r="AB95" s="105" t="n">
-        <v>1775306140382.274</v>
+        <v>1231672217958.962</v>
       </c>
       <c r="AC95" s="105" t="n">
-        <v>1791986870558.518</v>
+        <v>1234585719586.848</v>
       </c>
       <c r="AD95" s="105" t="n">
-        <v>1808330848365.345</v>
+        <v>1237228852722.464</v>
       </c>
       <c r="AE95" s="105" t="n">
-        <v>1824418689099.984</v>
+        <v>1239669435540.864</v>
       </c>
       <c r="AF95" s="105" t="n">
-        <v>1839433974918.926</v>
+        <v>1237039437122.192</v>
       </c>
       <c r="AG95" s="105" t="n">
-        <v>1854972672684.604</v>
+        <v>1234685109791.92</v>
       </c>
       <c r="AH95" s="105" t="n">
-        <v>1871209462015.536</v>
+        <v>1232723074900.905</v>
       </c>
       <c r="AI95" s="105" t="n">
-        <v>1888282125328.745</v>
+        <v>1231238298329.374</v>
       </c>
       <c r="AJ95" s="105" t="n">
-        <v>1906175270202.24</v>
+        <v>1230217529792.185</v>
       </c>
       <c r="AK95" s="105" t="n">
-        <v>1924827238733.033</v>
+        <v>1229610743633.518</v>
       </c>
       <c r="AL95" s="105" t="n">
-        <v>1944130613147.249</v>
+        <v>1229337801924.188</v>
       </c>
       <c r="AM95" s="105" t="n">
-        <v>1963968045570.784</v>
+        <v>1229317405263.654</v>
       </c>
       <c r="AN95" s="105" t="n">
-        <v>1984273698738.548</v>
+        <v>1229499305996.9</v>
       </c>
       <c r="AO95" s="105" t="n">
-        <v>2005023462762.179</v>
+        <v>1229859266045.264</v>
       </c>
     </row>
     <row r="96">
@@ -58993,100 +58993,100 @@
         </is>
       </c>
       <c r="J108" s="105" t="n">
-        <v>5771091616182.339</v>
+        <v>4382631566342.97</v>
       </c>
       <c r="K108" s="105" t="n">
-        <v>5749686610040.837</v>
+        <v>4350129902424.962</v>
       </c>
       <c r="L108" s="105" t="n">
-        <v>5728583823633.656</v>
+        <v>4317997668814.297</v>
       </c>
       <c r="M108" s="105" t="n">
-        <v>5706904479509.517</v>
+        <v>4285438969162.537</v>
       </c>
       <c r="N108" s="105" t="n">
-        <v>5686223409933.834</v>
+        <v>4253590224282.449</v>
       </c>
       <c r="O108" s="105" t="n">
-        <v>5668117786865.53</v>
+        <v>4223544319113.199</v>
       </c>
       <c r="P108" s="105" t="n">
-        <v>5653774678089.067</v>
+        <v>4196471099399.707</v>
       </c>
       <c r="Q108" s="105" t="n">
-        <v>5644518161572.495</v>
+        <v>4173750299942.368</v>
       </c>
       <c r="R108" s="105" t="n">
-        <v>5640450398549.275</v>
+        <v>4155498999362.332</v>
       </c>
       <c r="S108" s="105" t="n">
-        <v>5641519046924.679</v>
+        <v>4141362182336.079</v>
       </c>
       <c r="T108" s="105" t="n">
-        <v>5647096861967.054</v>
+        <v>4130782065853.824</v>
       </c>
       <c r="U108" s="105" t="n">
-        <v>5658306202811.031</v>
+        <v>4124706642617.982</v>
       </c>
       <c r="V108" s="105" t="n">
-        <v>5676050414814.482</v>
+        <v>4123823210132.493</v>
       </c>
       <c r="W108" s="105" t="n">
-        <v>5698987599803.408</v>
+        <v>4127046038951.06</v>
       </c>
       <c r="X108" s="105" t="n">
-        <v>5726312786274.372</v>
+        <v>4133666519644.975</v>
       </c>
       <c r="Y108" s="105" t="n">
-        <v>5758725243695.818</v>
+        <v>4144213360841.655</v>
       </c>
       <c r="Z108" s="105" t="n">
-        <v>5795873138575.154</v>
+        <v>4158294846441.032</v>
       </c>
       <c r="AA108" s="105" t="n">
-        <v>5836955625149.871</v>
+        <v>4175179784209.921</v>
       </c>
       <c r="AB108" s="105" t="n">
-        <v>5880261075565.102</v>
+        <v>4193756578728.397</v>
       </c>
       <c r="AC108" s="105" t="n">
-        <v>5924962899267.362</v>
+        <v>4213638952107.925</v>
       </c>
       <c r="AD108" s="105" t="n">
-        <v>5970486922231.693</v>
+        <v>4234466883192.303</v>
       </c>
       <c r="AE108" s="105" t="n">
-        <v>6016587999829.503</v>
+        <v>4255992107894.251</v>
       </c>
       <c r="AF108" s="105" t="n">
-        <v>6057321106027.619</v>
+        <v>4260018358074.197</v>
       </c>
       <c r="AG108" s="105" t="n">
-        <v>6098729943863.572</v>
+        <v>4264460420741.137</v>
       </c>
       <c r="AH108" s="105" t="n">
-        <v>6140801460048.422</v>
+        <v>4269287275368.05</v>
       </c>
       <c r="AI108" s="105" t="n">
-        <v>6183532235217.752</v>
+        <v>4274474710797.224</v>
       </c>
       <c r="AJ108" s="105" t="n">
-        <v>6226907004184.354</v>
+        <v>4279991006582.596</v>
       </c>
       <c r="AK108" s="105" t="n">
-        <v>6270899315265.907</v>
+        <v>4285798211707.307</v>
       </c>
       <c r="AL108" s="105" t="n">
-        <v>6315442165476.95</v>
+        <v>4291832733005.715</v>
       </c>
       <c r="AM108" s="105" t="n">
-        <v>6360487400122.729</v>
+        <v>4298046182406.895</v>
       </c>
       <c r="AN108" s="105" t="n">
-        <v>6406001670067.509</v>
+        <v>4304402014761.382</v>
       </c>
       <c r="AO108" s="105" t="n">
-        <v>6451959543507.012</v>
+        <v>4310870532984.443</v>
       </c>
     </row>
     <row r="109">
@@ -59214,100 +59214,100 @@
         </is>
       </c>
       <c r="J110" s="105" t="n">
-        <v>748211577548.8976</v>
+        <v>925035964969.8986</v>
       </c>
       <c r="K110" s="105" t="n">
-        <v>755130087318.882</v>
+        <v>927509493155.9171</v>
       </c>
       <c r="L110" s="105" t="n">
-        <v>762032233505.6167</v>
+        <v>930036911382.61</v>
       </c>
       <c r="M110" s="105" t="n">
-        <v>768729614474.701</v>
+        <v>932354320781.8252</v>
       </c>
       <c r="N110" s="105" t="n">
-        <v>775390467587.6127</v>
+        <v>934630079845.2689</v>
       </c>
       <c r="O110" s="105" t="n">
-        <v>782148287980.2092</v>
+        <v>936997221345.1906</v>
       </c>
       <c r="P110" s="105" t="n">
-        <v>789085883799.7222</v>
+        <v>939563512359.8508</v>
       </c>
       <c r="Q110" s="105" t="n">
-        <v>796272952497.4812</v>
+        <v>942489287120.3718</v>
       </c>
       <c r="R110" s="105" t="n">
-        <v>803580898653.9073</v>
+        <v>945710672621.4606</v>
       </c>
       <c r="S110" s="105" t="n">
-        <v>810942310143.6506</v>
+        <v>949172682926.7654</v>
       </c>
       <c r="T110" s="105" t="n">
-        <v>818344976479.2842</v>
+        <v>952867353202.2616</v>
       </c>
       <c r="U110" s="105" t="n">
-        <v>826082738407.8972</v>
+        <v>957166341206.9965</v>
       </c>
       <c r="V110" s="105" t="n">
-        <v>834246646956.4858</v>
+        <v>962146374873.1631</v>
       </c>
       <c r="W110" s="105" t="n">
-        <v>842617118582.0107</v>
+        <v>967528565095.8658</v>
       </c>
       <c r="X110" s="105" t="n">
-        <v>851015261754.7906</v>
+        <v>973090307774.1847</v>
       </c>
       <c r="Y110" s="105" t="n">
-        <v>859532864830.7151</v>
+        <v>978929241815.3463</v>
       </c>
       <c r="Z110" s="105" t="n">
-        <v>868198913744.9769</v>
+        <v>985017530212.179</v>
       </c>
       <c r="AA110" s="105" t="n">
-        <v>877021998410.4408</v>
+        <v>991299577145.2792</v>
       </c>
       <c r="AB110" s="105" t="n">
-        <v>885877304999.5992</v>
+        <v>997620679817.0072</v>
       </c>
       <c r="AC110" s="105" t="n">
-        <v>894725944734.463</v>
+        <v>1003967729074.523</v>
       </c>
       <c r="AD110" s="105" t="n">
-        <v>903514258926.7985</v>
+        <v>1010294953939.366</v>
       </c>
       <c r="AE110" s="105" t="n">
-        <v>912212559463.9384</v>
+        <v>1016568285633.199</v>
       </c>
       <c r="AF110" s="105" t="n">
-        <v>919282731600.2417</v>
+        <v>1018698340894.027</v>
       </c>
       <c r="AG110" s="105" t="n">
-        <v>926317924427.4764</v>
+        <v>1020733684698.638</v>
       </c>
       <c r="AH110" s="105" t="n">
-        <v>933326156158.9594</v>
+        <v>1022684213419.463</v>
       </c>
       <c r="AI110" s="105" t="n">
-        <v>940317618122.6035</v>
+        <v>1024561988073.395</v>
       </c>
       <c r="AJ110" s="105" t="n">
-        <v>947302254793.322</v>
+        <v>1026378542306.049</v>
       </c>
       <c r="AK110" s="105" t="n">
-        <v>954290173415.3348</v>
+        <v>1028145334474.132</v>
       </c>
       <c r="AL110" s="105" t="n">
-        <v>961286741840.9744</v>
+        <v>1029868494977.928</v>
       </c>
       <c r="AM110" s="105" t="n">
-        <v>968300395988.4487</v>
+        <v>1031557289264.462</v>
       </c>
       <c r="AN110" s="105" t="n">
-        <v>975340344506.8451</v>
+        <v>1033221596623.621</v>
       </c>
       <c r="AO110" s="105" t="n">
-        <v>982414311510.7643</v>
+        <v>1034869511622.663</v>
       </c>
     </row>
     <row r="111">
@@ -59847,100 +59847,100 @@
         </is>
       </c>
       <c r="J116" s="105" t="n">
-        <v>172405142923.3502</v>
+        <v>184941896051.2708</v>
       </c>
       <c r="K116" s="105" t="n">
-        <v>173227787606.4535</v>
+        <v>185153393011.8404</v>
       </c>
       <c r="L116" s="105" t="n">
-        <v>174073370697.4487</v>
+        <v>185404100889.3121</v>
       </c>
       <c r="M116" s="105" t="n">
-        <v>174905867714.6027</v>
+        <v>185640397977.9286</v>
       </c>
       <c r="N116" s="105" t="n">
-        <v>175755045942.1888</v>
+        <v>185888024552.0704</v>
       </c>
       <c r="O116" s="105" t="n">
-        <v>176651580910.0264</v>
+        <v>186167855563.7714</v>
       </c>
       <c r="P116" s="105" t="n">
-        <v>177574339387.062</v>
+        <v>186464799199.9917</v>
       </c>
       <c r="Q116" s="105" t="n">
-        <v>178510031755.0412</v>
+        <v>186783884759.5318</v>
       </c>
       <c r="R116" s="105" t="n">
-        <v>179435539786.5399</v>
+        <v>187112025760.3594</v>
       </c>
       <c r="S116" s="105" t="n">
-        <v>180356361061.498</v>
+        <v>187453967464.609</v>
       </c>
       <c r="T116" s="105" t="n">
-        <v>181268479012.2266</v>
+        <v>187810474070.1102</v>
       </c>
       <c r="U116" s="105" t="n">
-        <v>182243043470.683</v>
+        <v>188260454668.1645</v>
       </c>
       <c r="V116" s="105" t="n">
-        <v>183297966713.5426</v>
+        <v>188812904578.2993</v>
       </c>
       <c r="W116" s="105" t="n">
-        <v>184387973354.3686</v>
+        <v>189414039394.3279</v>
       </c>
       <c r="X116" s="105" t="n">
-        <v>185475143416.6542</v>
+        <v>190018331971.3603</v>
       </c>
       <c r="Y116" s="105" t="n">
-        <v>186573262363.6692</v>
+        <v>190642406129.5644</v>
       </c>
       <c r="Z116" s="105" t="n">
-        <v>187688184382.3438</v>
+        <v>191282836978.9874</v>
       </c>
       <c r="AA116" s="105" t="n">
-        <v>188830576617.5915</v>
+        <v>191945838630.2163</v>
       </c>
       <c r="AB116" s="105" t="n">
-        <v>189976218640.6942</v>
+        <v>192609787392.686</v>
       </c>
       <c r="AC116" s="105" t="n">
-        <v>191123923399.7453</v>
+        <v>193282940201.8516</v>
       </c>
       <c r="AD116" s="105" t="n">
-        <v>192267424593.9101</v>
+        <v>193962184043.0502</v>
       </c>
       <c r="AE116" s="105" t="n">
-        <v>193408035978.1816</v>
+        <v>194646501776.8632</v>
       </c>
       <c r="AF116" s="105" t="n">
-        <v>194907061230.1095</v>
+        <v>195054355097.6216</v>
       </c>
       <c r="AG116" s="105" t="n">
-        <v>196398668502.7495</v>
+        <v>195444070825.4881</v>
       </c>
       <c r="AH116" s="105" t="n">
-        <v>197884559409.8984</v>
+        <v>195817546571.3661</v>
       </c>
       <c r="AI116" s="105" t="n">
-        <v>199366894776.9915</v>
+        <v>196177091796.4935</v>
       </c>
       <c r="AJ116" s="105" t="n">
-        <v>200847783040.0093</v>
+        <v>196524914896.1213</v>
       </c>
       <c r="AK116" s="105" t="n">
-        <v>202329367144.9699</v>
+        <v>196863209848.87</v>
       </c>
       <c r="AL116" s="105" t="n">
-        <v>203812785188.226</v>
+        <v>197193150467.6597</v>
       </c>
       <c r="AM116" s="105" t="n">
-        <v>205299825759.9143</v>
+        <v>197516510845.6859</v>
       </c>
       <c r="AN116" s="105" t="n">
-        <v>206792441285.1927</v>
+        <v>197835182611.1583</v>
       </c>
       <c r="AO116" s="105" t="n">
-        <v>208292269437.0272</v>
+        <v>198150715664.1147</v>
       </c>
     </row>
     <row r="117">
@@ -60178,100 +60178,100 @@
         </is>
       </c>
       <c r="J121" s="105" t="n">
-        <v>14040001161537.1</v>
+        <v>9818716908490.176</v>
       </c>
       <c r="K121" s="105" t="n">
-        <v>14096117429903.04</v>
+        <v>9893490591859.271</v>
       </c>
       <c r="L121" s="105" t="n">
-        <v>14215145681413.67</v>
+        <v>9963732389200.424</v>
       </c>
       <c r="M121" s="105" t="n">
-        <v>14383105299190.87</v>
+        <v>10044413286950.64</v>
       </c>
       <c r="N121" s="105" t="n">
-        <v>14564675179735.89</v>
+        <v>10128345509786.85</v>
       </c>
       <c r="O121" s="105" t="n">
-        <v>14755566431530.57</v>
+        <v>10221406558629.6</v>
       </c>
       <c r="P121" s="105" t="n">
-        <v>14943557077699.6</v>
+        <v>10320441454117.27</v>
       </c>
       <c r="Q121" s="105" t="n">
-        <v>15119615137714.94</v>
+        <v>10413941548504.56</v>
       </c>
       <c r="R121" s="105" t="n">
-        <v>15310368311660.01</v>
+        <v>10510604307952.29</v>
       </c>
       <c r="S121" s="105" t="n">
-        <v>15505282719022.35</v>
+        <v>10616553724721.4</v>
       </c>
       <c r="T121" s="105" t="n">
-        <v>15686647246383.97</v>
+        <v>10715733825018.74</v>
       </c>
       <c r="U121" s="105" t="n">
-        <v>15853236829008.51</v>
+        <v>10810328445263.39</v>
       </c>
       <c r="V121" s="105" t="n">
-        <v>16026725644349.66</v>
+        <v>10902208778626.4</v>
       </c>
       <c r="W121" s="105" t="n">
-        <v>16204030708820.62</v>
+        <v>10990483901646.61</v>
       </c>
       <c r="X121" s="105" t="n">
-        <v>16391452249027.41</v>
+        <v>11088708093154.41</v>
       </c>
       <c r="Y121" s="105" t="n">
-        <v>16594094615079.71</v>
+        <v>11201724784468.82</v>
       </c>
       <c r="Z121" s="105" t="n">
-        <v>16809047687668.33</v>
+        <v>11326045423175.4</v>
       </c>
       <c r="AA121" s="105" t="n">
-        <v>17026972718509.34</v>
+        <v>11450749660599.38</v>
       </c>
       <c r="AB121" s="105" t="n">
-        <v>17236404489244.16</v>
+        <v>11571493635844.43</v>
       </c>
       <c r="AC121" s="105" t="n">
-        <v>17460177523127.06</v>
+        <v>11695779963395.6</v>
       </c>
       <c r="AD121" s="105" t="n">
-        <v>17674153760457.67</v>
+        <v>11814273538580.08</v>
       </c>
       <c r="AE121" s="105" t="n">
-        <v>17869688045787.42</v>
+        <v>11925232040926.49</v>
       </c>
       <c r="AF121" s="105" t="n">
-        <v>18029482754979.36</v>
+        <v>12011367451673.45</v>
       </c>
       <c r="AG121" s="105" t="n">
-        <v>18179525258965.82</v>
+        <v>12098283784317.37</v>
       </c>
       <c r="AH121" s="105" t="n">
-        <v>18329320601336.32</v>
+        <v>12188575717052.16</v>
       </c>
       <c r="AI121" s="105" t="n">
-        <v>18474357969341.72</v>
+        <v>12278475679147.63</v>
       </c>
       <c r="AJ121" s="105" t="n">
-        <v>18616962552549.14</v>
+        <v>12367245774895.68</v>
       </c>
       <c r="AK121" s="105" t="n">
-        <v>18743986019595.27</v>
+        <v>12444879018578.38</v>
       </c>
       <c r="AL121" s="105" t="n">
-        <v>18854839492882.95</v>
+        <v>12510391160391.83</v>
       </c>
       <c r="AM121" s="105" t="n">
-        <v>18948029032856.87</v>
+        <v>12572511164137.52</v>
       </c>
       <c r="AN121" s="105" t="n">
-        <v>19033973158526.41</v>
+        <v>12638479918807.08</v>
       </c>
       <c r="AO121" s="105" t="n">
-        <v>19109114140550.93</v>
+        <v>12709674125199.91</v>
       </c>
     </row>
     <row r="122">
@@ -61355,100 +61355,100 @@
         </is>
       </c>
       <c r="J134" s="105" t="n">
-        <v>4334814321001.173</v>
+        <v>3413817928157.724</v>
       </c>
       <c r="K134" s="105" t="n">
-        <v>4373405026278.049</v>
+        <v>3417769165341.41</v>
       </c>
       <c r="L134" s="105" t="n">
-        <v>4409863772227.172</v>
+        <v>3421348018785.47</v>
       </c>
       <c r="M134" s="105" t="n">
-        <v>4445171571350.734</v>
+        <v>3423323536611.231</v>
       </c>
       <c r="N134" s="105" t="n">
-        <v>4478219880709.26</v>
+        <v>3424134349245.125</v>
       </c>
       <c r="O134" s="105" t="n">
-        <v>4508242666224.521</v>
+        <v>3423981561915.497</v>
       </c>
       <c r="P134" s="105" t="n">
-        <v>4536588343241.811</v>
+        <v>3423230099041.154</v>
       </c>
       <c r="Q134" s="105" t="n">
-        <v>4563091405424.033</v>
+        <v>3423094742769.735</v>
       </c>
       <c r="R134" s="105" t="n">
-        <v>4588351877345.865</v>
+        <v>3423244778080.95</v>
       </c>
       <c r="S134" s="105" t="n">
-        <v>4613350413355.44</v>
+        <v>3424226295001.531</v>
       </c>
       <c r="T134" s="105" t="n">
-        <v>4636615400229.343</v>
+        <v>3425649227329.326</v>
       </c>
       <c r="U134" s="105" t="n">
-        <v>4657631785314.054</v>
+        <v>3427408174258.681</v>
       </c>
       <c r="V134" s="105" t="n">
-        <v>4676969245665.21</v>
+        <v>3429509175918.236</v>
       </c>
       <c r="W134" s="105" t="n">
-        <v>4692907732025.89</v>
+        <v>3431043127540.245</v>
       </c>
       <c r="X134" s="105" t="n">
-        <v>4706244045338.376</v>
+        <v>3431564279384.918</v>
       </c>
       <c r="Y134" s="105" t="n">
-        <v>4716573558732.776</v>
+        <v>3430940220780.758</v>
       </c>
       <c r="Z134" s="105" t="n">
-        <v>4725053917113.093</v>
+        <v>3429032283633.605</v>
       </c>
       <c r="AA134" s="105" t="n">
-        <v>4730364388495.845</v>
+        <v>3425719095152.506</v>
       </c>
       <c r="AB134" s="105" t="n">
-        <v>4733856862917.328</v>
+        <v>3420561953497.052</v>
       </c>
       <c r="AC134" s="105" t="n">
-        <v>4737499174777.029</v>
+        <v>3414799883905.224</v>
       </c>
       <c r="AD134" s="105" t="n">
-        <v>4740584729400.477</v>
+        <v>3407580541204.917</v>
       </c>
       <c r="AE134" s="105" t="n">
-        <v>4744194729304.903</v>
+        <v>3399910208758.68</v>
       </c>
       <c r="AF134" s="105" t="n">
-        <v>4747448544577.85</v>
+        <v>3392588144096.456</v>
       </c>
       <c r="AG134" s="105" t="n">
-        <v>4751026166096.699</v>
+        <v>3385198413566.272</v>
       </c>
       <c r="AH134" s="105" t="n">
-        <v>4754635750770.956</v>
+        <v>3378458289057.346</v>
       </c>
       <c r="AI134" s="105" t="n">
-        <v>4759562496392.78</v>
+        <v>3372273868548.193</v>
       </c>
       <c r="AJ134" s="105" t="n">
-        <v>4763966213381.052</v>
+        <v>3366720124871.216</v>
       </c>
       <c r="AK134" s="105" t="n">
-        <v>4769066313738.45</v>
+        <v>3361654715598.818</v>
       </c>
       <c r="AL134" s="105" t="n">
-        <v>4773575722123.451</v>
+        <v>3357032042814.874</v>
       </c>
       <c r="AM134" s="105" t="n">
-        <v>4777738632997.923</v>
+        <v>3352811286507.02</v>
       </c>
       <c r="AN134" s="105" t="n">
-        <v>4781816139320.69</v>
+        <v>3348833030577.344</v>
       </c>
       <c r="AO134" s="105" t="n">
-        <v>4785537506608.71</v>
+        <v>3344947333326.74</v>
       </c>
     </row>
     <row r="135">
@@ -61566,100 +61566,100 @@
         </is>
       </c>
       <c r="J136" s="105" t="n">
-        <v>33466164302637.92</v>
+        <v>39256393227418.19</v>
       </c>
       <c r="K136" s="105" t="n">
-        <v>33292470847774.08</v>
+        <v>39201995610222.41</v>
       </c>
       <c r="L136" s="105" t="n">
-        <v>33108952003814.18</v>
+        <v>39149281379799.24</v>
       </c>
       <c r="M136" s="105" t="n">
-        <v>32921737006868.01</v>
+        <v>39082965782065.2</v>
       </c>
       <c r="N136" s="105" t="n">
-        <v>32725084174945.34</v>
+        <v>39005976684039.58</v>
       </c>
       <c r="O136" s="105" t="n">
-        <v>32514441926676.87</v>
+        <v>38918683226410.79</v>
       </c>
       <c r="P136" s="105" t="n">
-        <v>32301296556886.5</v>
+        <v>38823393440651.4</v>
       </c>
       <c r="Q136" s="105" t="n">
-        <v>32088499977332.29</v>
+        <v>38732509669724.15</v>
       </c>
       <c r="R136" s="105" t="n">
-        <v>31884072050169.51</v>
+        <v>38642189276623.28</v>
       </c>
       <c r="S136" s="105" t="n">
-        <v>31700990463218.52</v>
+        <v>38559648600440.15</v>
       </c>
       <c r="T136" s="105" t="n">
-        <v>31536595505345.42</v>
+        <v>38482856359924.74</v>
       </c>
       <c r="U136" s="105" t="n">
-        <v>31395059284059.4</v>
+        <v>38414722532204.78</v>
       </c>
       <c r="V136" s="105" t="n">
-        <v>31284816830367.26</v>
+        <v>38357281141690.6</v>
       </c>
       <c r="W136" s="105" t="n">
-        <v>31199554948052.92</v>
+        <v>38305948047189.8</v>
       </c>
       <c r="X136" s="105" t="n">
-        <v>31146512992117.01</v>
+        <v>38261004439137.13</v>
       </c>
       <c r="Y136" s="105" t="n">
-        <v>31121121585409.94</v>
+        <v>38225210906385.95</v>
       </c>
       <c r="Z136" s="105" t="n">
-        <v>31126079337388.33</v>
+        <v>38199091404272.9</v>
       </c>
       <c r="AA136" s="105" t="n">
-        <v>31145226053565.92</v>
+        <v>38180859147435.8</v>
       </c>
       <c r="AB136" s="105" t="n">
-        <v>31178702009062.58</v>
+        <v>38163889135345.5</v>
       </c>
       <c r="AC136" s="105" t="n">
-        <v>31231200174920.14</v>
+        <v>38159667489416.87</v>
       </c>
       <c r="AD136" s="105" t="n">
-        <v>31291343260036.17</v>
+        <v>38154860309085.17</v>
       </c>
       <c r="AE136" s="105" t="n">
-        <v>31361446848573.52</v>
+        <v>38157365045941.45</v>
       </c>
       <c r="AF136" s="105" t="n">
-        <v>31431526926249.36</v>
+        <v>38166223053676.62</v>
       </c>
       <c r="AG136" s="105" t="n">
-        <v>31504019009979.92</v>
+        <v>38173112737478.29</v>
       </c>
       <c r="AH136" s="105" t="n">
-        <v>31575681002375.54</v>
+        <v>38183754833687.17</v>
       </c>
       <c r="AI136" s="105" t="n">
-        <v>31654285834185.04</v>
+        <v>38194983395838.2</v>
       </c>
       <c r="AJ136" s="105" t="n">
-        <v>31727319688583.26</v>
+        <v>38207000402919.43</v>
       </c>
       <c r="AK136" s="105" t="n">
-        <v>31802891422320.12</v>
+        <v>38218101646273.96</v>
       </c>
       <c r="AL136" s="105" t="n">
-        <v>31872678182421.61</v>
+        <v>38228266682280.11</v>
       </c>
       <c r="AM136" s="105" t="n">
-        <v>31938614929497.73</v>
+        <v>38237784178888.62</v>
       </c>
       <c r="AN136" s="105" t="n">
-        <v>32002721869813.22</v>
+        <v>38245314516450.94</v>
       </c>
       <c r="AO136" s="105" t="n">
-        <v>32063437104643.56</v>
+        <v>38249394204937.1</v>
       </c>
     </row>
     <row r="137">
@@ -61674,100 +61674,100 @@
         </is>
       </c>
       <c r="J137" s="105" t="n">
-        <v>3922531423948.819</v>
+        <v>2121869281264.54</v>
       </c>
       <c r="K137" s="105" t="n">
-        <v>3992812744335.896</v>
+        <v>2156037588088.04</v>
       </c>
       <c r="L137" s="105" t="n">
-        <v>4061554630154.218</v>
+        <v>2190268432633.842</v>
       </c>
       <c r="M137" s="105" t="n">
-        <v>4129437243046.757</v>
+        <v>2223550629404.44</v>
       </c>
       <c r="N137" s="105" t="n">
-        <v>4195337240686.437</v>
+        <v>2255972449031.18</v>
       </c>
       <c r="O137" s="105" t="n">
-        <v>4258305415729.81</v>
+        <v>2287414121636.487</v>
       </c>
       <c r="P137" s="105" t="n">
-        <v>4319312150540.686</v>
+        <v>2317854187819.06</v>
       </c>
       <c r="Q137" s="105" t="n">
-        <v>4378038089348.369</v>
+        <v>2347865852751.415</v>
       </c>
       <c r="R137" s="105" t="n">
-        <v>4434762281827.609</v>
+        <v>2376956181910.653</v>
       </c>
       <c r="S137" s="105" t="n">
-        <v>4490378577910.907</v>
+        <v>2405327474611.343</v>
       </c>
       <c r="T137" s="105" t="n">
-        <v>4543715284311.629</v>
+        <v>2432654214485.648</v>
       </c>
       <c r="U137" s="105" t="n">
-        <v>4594752833578.575</v>
+        <v>2458937710489.471</v>
       </c>
       <c r="V137" s="105" t="n">
-        <v>4644121473453.727</v>
+        <v>2484128319683.184</v>
       </c>
       <c r="W137" s="105" t="n">
-        <v>4690697627488.198</v>
+        <v>2507806463439.595</v>
       </c>
       <c r="X137" s="105" t="n">
-        <v>4735510345434.166</v>
+        <v>2529823964860.024</v>
       </c>
       <c r="Y137" s="105" t="n">
-        <v>4778640051806.707</v>
+        <v>2550098186767.805</v>
       </c>
       <c r="Z137" s="105" t="n">
-        <v>4819888883711.406</v>
+        <v>2568386622344.216</v>
       </c>
       <c r="AA137" s="105" t="n">
-        <v>4856798746163.244</v>
+        <v>2584356253282.729</v>
       </c>
       <c r="AB137" s="105" t="n">
-        <v>4889305105538.47</v>
+        <v>2597380351763.262</v>
       </c>
       <c r="AC137" s="105" t="n">
-        <v>4918062999612.578</v>
+        <v>2608089590029.697</v>
       </c>
       <c r="AD137" s="105" t="n">
-        <v>4941924092054.678</v>
+        <v>2615708619805.879</v>
       </c>
       <c r="AE137" s="105" t="n">
-        <v>4961825218686.875</v>
+        <v>2621002001190.733</v>
       </c>
       <c r="AF137" s="105" t="n">
-        <v>4977323346874.313</v>
+        <v>2624304947416.866</v>
       </c>
       <c r="AG137" s="105" t="n">
-        <v>4989691260874.056</v>
+        <v>2625601927139.94</v>
       </c>
       <c r="AH137" s="105" t="n">
-        <v>4999686823486.497</v>
+        <v>2625758575567.256</v>
       </c>
       <c r="AI137" s="105" t="n">
-        <v>5009341437045.641</v>
+        <v>2625097424754.602</v>
       </c>
       <c r="AJ137" s="105" t="n">
-        <v>5017938237677.388</v>
+        <v>2623997713140.111</v>
       </c>
       <c r="AK137" s="105" t="n">
-        <v>5027067853785.537</v>
+        <v>2622636803161.791</v>
       </c>
       <c r="AL137" s="105" t="n">
-        <v>5036002101135.434</v>
+        <v>2621172112901.053</v>
       </c>
       <c r="AM137" s="105" t="n">
-        <v>5045084269360.162</v>
+        <v>2619665009330.615</v>
       </c>
       <c r="AN137" s="105" t="n">
-        <v>5054516447476.353</v>
+        <v>2618033963141.283</v>
       </c>
       <c r="AO137" s="105" t="n">
-        <v>5063929872846.962</v>
+        <v>2616158557097.657</v>
       </c>
     </row>
     <row r="138">
@@ -61777,100 +61777,100 @@
         </is>
       </c>
       <c r="J138" s="106" t="n">
-        <v>3483664041585.816</v>
+        <v>2569794524796.245</v>
       </c>
       <c r="K138" s="106" t="n">
-        <v>3528932729282.156</v>
+        <v>2600705768486.523</v>
       </c>
       <c r="L138" s="106" t="n">
-        <v>3574965355099.163</v>
+        <v>2631785903714.742</v>
       </c>
       <c r="M138" s="106" t="n">
-        <v>3620269278236.697</v>
+        <v>2662789709779.184</v>
       </c>
       <c r="N138" s="106" t="n">
-        <v>3665984388911.99</v>
+        <v>2693569103848.108</v>
       </c>
       <c r="O138" s="106" t="n">
-        <v>3712079974953.092</v>
+        <v>2724250698839.137</v>
       </c>
       <c r="P138" s="106" t="n">
-        <v>3757949744234.445</v>
+        <v>2754727205240.565</v>
       </c>
       <c r="Q138" s="106" t="n">
-        <v>3803453517840.97</v>
+        <v>2784941464735.019</v>
       </c>
       <c r="R138" s="106" t="n">
-        <v>3848362083758.983</v>
+        <v>2815157514417.673</v>
       </c>
       <c r="S138" s="106" t="n">
-        <v>3893268302372.838</v>
+        <v>2845466518331.553</v>
       </c>
       <c r="T138" s="106" t="n">
-        <v>3938231537108.435</v>
+        <v>2875828962498.972</v>
       </c>
       <c r="U138" s="106" t="n">
-        <v>3983279686005.572</v>
+        <v>2906138019824.139</v>
       </c>
       <c r="V138" s="106" t="n">
-        <v>4028720546414.052</v>
+        <v>2936488095667.699</v>
       </c>
       <c r="W138" s="106" t="n">
-        <v>4074020870591.209</v>
+        <v>2966836981725.71</v>
       </c>
       <c r="X138" s="106" t="n">
-        <v>4119497592475.395</v>
+        <v>2997290977743.116</v>
       </c>
       <c r="Y138" s="106" t="n">
-        <v>4165353145398.574</v>
+        <v>3027863362095.203</v>
       </c>
       <c r="Z138" s="106" t="n">
-        <v>4210996628826.593</v>
+        <v>3058365276208.146</v>
       </c>
       <c r="AA138" s="106" t="n">
-        <v>4256612081950.621</v>
+        <v>3088755226097.915</v>
       </c>
       <c r="AB138" s="106" t="n">
-        <v>4302088896485.708</v>
+        <v>3119100938134.347</v>
       </c>
       <c r="AC138" s="106" t="n">
-        <v>4347823132620.642</v>
+        <v>3149594200047.46</v>
       </c>
       <c r="AD138" s="106" t="n">
-        <v>4393579776129.838</v>
+        <v>3180136630084.696</v>
       </c>
       <c r="AE138" s="106" t="n">
-        <v>4439673358077.302</v>
+        <v>3210635490033.968</v>
       </c>
       <c r="AF138" s="106" t="n">
-        <v>4485869371834.765</v>
+        <v>3241153858888.212</v>
       </c>
       <c r="AG138" s="106" t="n">
-        <v>4532290759525.343</v>
+        <v>3271680408963.202</v>
       </c>
       <c r="AH138" s="106" t="n">
-        <v>4578889797072.753</v>
+        <v>3302267676000.854</v>
       </c>
       <c r="AI138" s="106" t="n">
-        <v>4625842900429.525</v>
+        <v>3332886229228.785</v>
       </c>
       <c r="AJ138" s="106" t="n">
-        <v>4673128244137.68</v>
+        <v>3363599130556.776</v>
       </c>
       <c r="AK138" s="106" t="n">
-        <v>4720688900001.717</v>
+        <v>3394379906556.404</v>
       </c>
       <c r="AL138" s="106" t="n">
-        <v>4768404481759.807</v>
+        <v>3425037598356.925</v>
       </c>
       <c r="AM138" s="106" t="n">
-        <v>4816383315248.241</v>
+        <v>3455604684480.912</v>
       </c>
       <c r="AN138" s="106" t="n">
-        <v>4864492644698.007</v>
+        <v>3486145675800.441</v>
       </c>
       <c r="AO138" s="106" t="n">
-        <v>4913142541447.841</v>
+        <v>3516579670980.12</v>
       </c>
     </row>
     <row r="139">
@@ -62530,100 +62530,100 @@
         </is>
       </c>
       <c r="J147" s="105" t="n">
-        <v>30913845186757.85</v>
+        <v>10364068453610.8</v>
       </c>
       <c r="K147" s="105" t="n">
-        <v>31062351123953.03</v>
+        <v>10419669044629.02</v>
       </c>
       <c r="L147" s="105" t="n">
-        <v>31186676234335.31</v>
+        <v>10468978941564.29</v>
       </c>
       <c r="M147" s="105" t="n">
-        <v>31284764700133.55</v>
+        <v>10511812060985.88</v>
       </c>
       <c r="N147" s="105" t="n">
-        <v>31354485917209.72</v>
+        <v>10544738737869.92</v>
       </c>
       <c r="O147" s="105" t="n">
-        <v>31390294211627.52</v>
+        <v>10560350618865.28</v>
       </c>
       <c r="P147" s="105" t="n">
-        <v>31395236997361.83</v>
+        <v>10571575166115.56</v>
       </c>
       <c r="Q147" s="105" t="n">
-        <v>31370887740143.84</v>
+        <v>10576158073578.37</v>
       </c>
       <c r="R147" s="105" t="n">
-        <v>31322621944990.77</v>
+        <v>10569661638498.58</v>
       </c>
       <c r="S147" s="105" t="n">
-        <v>31252906516463.68</v>
+        <v>10554688651745.53</v>
       </c>
       <c r="T147" s="105" t="n">
-        <v>31158553902663.17</v>
+        <v>10534698540489.16</v>
       </c>
       <c r="U147" s="105" t="n">
-        <v>31040979779608.57</v>
+        <v>10499641924002.77</v>
       </c>
       <c r="V147" s="105" t="n">
-        <v>30925237614209.65</v>
+        <v>10469430488087.86</v>
       </c>
       <c r="W147" s="105" t="n">
-        <v>30813107709468.53</v>
+        <v>10440022301204.77</v>
       </c>
       <c r="X147" s="105" t="n">
-        <v>30712431791619.31</v>
+        <v>10413772957798.45</v>
       </c>
       <c r="Y147" s="105" t="n">
-        <v>30616763485143.57</v>
+        <v>10389491472294.8</v>
       </c>
       <c r="Z147" s="105" t="n">
-        <v>30535580862613.05</v>
+        <v>10367163762715.73</v>
       </c>
       <c r="AA147" s="105" t="n">
-        <v>30465020574730.85</v>
+        <v>10352270605850.8</v>
       </c>
       <c r="AB147" s="105" t="n">
-        <v>30405015983786.84</v>
+        <v>10342764333047.57</v>
       </c>
       <c r="AC147" s="105" t="n">
-        <v>30371156254050.61</v>
+        <v>10339461163740.51</v>
       </c>
       <c r="AD147" s="105" t="n">
-        <v>30360431877104.11</v>
+        <v>10345365022153.26</v>
       </c>
       <c r="AE147" s="105" t="n">
-        <v>30372170089287.29</v>
+        <v>10361009954329.17</v>
       </c>
       <c r="AF147" s="105" t="n">
-        <v>30405719160984.25</v>
+        <v>10387594624190.87</v>
       </c>
       <c r="AG147" s="105" t="n">
-        <v>30461518956010.3</v>
+        <v>10417980320450.14</v>
       </c>
       <c r="AH147" s="105" t="n">
-        <v>30545966216910.18</v>
+        <v>10459125780099.98</v>
       </c>
       <c r="AI147" s="105" t="n">
-        <v>30653788562564.54</v>
+        <v>10509399202825.63</v>
       </c>
       <c r="AJ147" s="105" t="n">
-        <v>30785978180585.18</v>
+        <v>10572897558786</v>
       </c>
       <c r="AK147" s="105" t="n">
-        <v>30943985895947.85</v>
+        <v>10644361021882.57</v>
       </c>
       <c r="AL147" s="105" t="n">
-        <v>31119450369339.21</v>
+        <v>10720565652420.8</v>
       </c>
       <c r="AM147" s="105" t="n">
-        <v>31310866134744.55</v>
+        <v>10805945846431.33</v>
       </c>
       <c r="AN147" s="105" t="n">
-        <v>31522628178321.3</v>
+        <v>10900787632006.09</v>
       </c>
       <c r="AO147" s="105" t="n">
-        <v>31746304905373.03</v>
+        <v>11000993533180.54</v>
       </c>
     </row>
     <row r="148">
@@ -62741,100 +62741,100 @@
         </is>
       </c>
       <c r="J149" s="105" t="n">
-        <v>592049153496.913</v>
+        <v>20294500999.74518</v>
       </c>
       <c r="K149" s="105" t="n">
-        <v>588115588241.4899</v>
+        <v>20530376479.56819</v>
       </c>
       <c r="L149" s="105" t="n">
-        <v>584048884593.1907</v>
+        <v>20758222807.8331</v>
       </c>
       <c r="M149" s="105" t="n">
-        <v>579712626746.6001</v>
+        <v>20961378146.36508</v>
       </c>
       <c r="N149" s="105" t="n">
-        <v>575032686189.1343</v>
+        <v>21136955840.38528</v>
       </c>
       <c r="O149" s="105" t="n">
-        <v>569894243145.0942</v>
+        <v>21287271384.89673</v>
       </c>
       <c r="P149" s="105" t="n">
-        <v>564250728129.4596</v>
+        <v>21405839182.20307</v>
       </c>
       <c r="Q149" s="105" t="n">
-        <v>558095905444.0995</v>
+        <v>21495798726.19031</v>
       </c>
       <c r="R149" s="105" t="n">
-        <v>551391086460.7865</v>
+        <v>21550005628.56703</v>
       </c>
       <c r="S149" s="105" t="n">
-        <v>544166238435.8919</v>
+        <v>21567151529.40044</v>
       </c>
       <c r="T149" s="105" t="n">
-        <v>536406032413.9348</v>
+        <v>21550097169.41604</v>
       </c>
       <c r="U149" s="105" t="n">
-        <v>528083819539.1257</v>
+        <v>21494024126.40891</v>
       </c>
       <c r="V149" s="105" t="n">
-        <v>519157033168.0064</v>
+        <v>21397775219.66346</v>
       </c>
       <c r="W149" s="105" t="n">
-        <v>509615236965.9208</v>
+        <v>21259068357.16033</v>
       </c>
       <c r="X149" s="105" t="n">
-        <v>499484846809.4198</v>
+        <v>21074058991.01777</v>
       </c>
       <c r="Y149" s="105" t="n">
-        <v>488800858291.7422</v>
+        <v>20846235309.15492</v>
       </c>
       <c r="Z149" s="105" t="n">
-        <v>477494605921.4891</v>
+        <v>20575561082.18927</v>
       </c>
       <c r="AA149" s="105" t="n">
-        <v>465621392739.3386</v>
+        <v>20262653678.10637</v>
       </c>
       <c r="AB149" s="105" t="n">
-        <v>453217467907.3818</v>
+        <v>19910532255.00833</v>
       </c>
       <c r="AC149" s="105" t="n">
-        <v>440392861200.9549</v>
+        <v>19516510924.57521</v>
       </c>
       <c r="AD149" s="105" t="n">
-        <v>427258095820.7721</v>
+        <v>19086288512.10466</v>
       </c>
       <c r="AE149" s="105" t="n">
-        <v>413924503900.1364</v>
+        <v>18626085790.09579</v>
       </c>
       <c r="AF149" s="105" t="n">
-        <v>400594956737.8729</v>
+        <v>18136029687.26434</v>
       </c>
       <c r="AG149" s="105" t="n">
-        <v>387486130406.5884</v>
+        <v>17626846897.20046</v>
       </c>
       <c r="AH149" s="105" t="n">
-        <v>374882099299.1039</v>
+        <v>17102475687.27935</v>
       </c>
       <c r="AI149" s="105" t="n">
-        <v>362959035969.4529</v>
+        <v>16571583336.34422</v>
       </c>
       <c r="AJ149" s="105" t="n">
-        <v>351954202970.0716</v>
+        <v>16042577334.00192</v>
       </c>
       <c r="AK149" s="105" t="n">
-        <v>341989771407.4536</v>
+        <v>15517068975.16528</v>
       </c>
       <c r="AL149" s="105" t="n">
-        <v>333138131109.6285</v>
+        <v>15000351793.26966</v>
       </c>
       <c r="AM149" s="105" t="n">
-        <v>325434194050.4683</v>
+        <v>14497990605.8354</v>
       </c>
       <c r="AN149" s="105" t="n">
-        <v>318859041743.0919</v>
+        <v>14009668998.88405</v>
       </c>
       <c r="AO149" s="105" t="n">
-        <v>313336849157.8504</v>
+        <v>13535616620.4222</v>
       </c>
     </row>
     <row r="150">
@@ -63680,100 +63680,100 @@
         </is>
       </c>
       <c r="J160" s="105" t="n">
-        <v>16278038984066.51</v>
+        <v>8186604958806.647</v>
       </c>
       <c r="K160" s="105" t="n">
-        <v>16366558926479.63</v>
+        <v>8184913727845.438</v>
       </c>
       <c r="L160" s="105" t="n">
-        <v>16338989081823.33</v>
+        <v>8133359522705.55</v>
       </c>
       <c r="M160" s="105" t="n">
-        <v>16110227211534.82</v>
+        <v>7979326304136.828</v>
       </c>
       <c r="N160" s="105" t="n">
-        <v>15730700235498.84</v>
+        <v>7746672941184.208</v>
       </c>
       <c r="O160" s="105" t="n">
-        <v>15316247607934.31</v>
+        <v>7500071784586.15</v>
       </c>
       <c r="P160" s="105" t="n">
-        <v>14912120370955.51</v>
+        <v>7268180489309.272</v>
       </c>
       <c r="Q160" s="105" t="n">
-        <v>14514012740836.39</v>
+        <v>7045127102725.318</v>
       </c>
       <c r="R160" s="105" t="n">
-        <v>14127835084405.87</v>
+        <v>6831472917499.84</v>
       </c>
       <c r="S160" s="105" t="n">
-        <v>13764385978168.27</v>
+        <v>6631996177021</v>
       </c>
       <c r="T160" s="105" t="n">
-        <v>13434323618007.07</v>
+        <v>6448603405579.505</v>
       </c>
       <c r="U160" s="105" t="n">
-        <v>13140759941956.32</v>
+        <v>6286900922707.373</v>
       </c>
       <c r="V160" s="105" t="n">
-        <v>12892713328328.79</v>
+        <v>6149016728531.511</v>
       </c>
       <c r="W160" s="105" t="n">
-        <v>12687525259924.46</v>
+        <v>6032096176406.583</v>
       </c>
       <c r="X160" s="105" t="n">
-        <v>12516262221299.6</v>
+        <v>5932867511739.704</v>
       </c>
       <c r="Y160" s="105" t="n">
-        <v>12367436053171.79</v>
+        <v>5843541510626.251</v>
       </c>
       <c r="Z160" s="105" t="n">
-        <v>12234410786289.95</v>
+        <v>5762260857344.656</v>
       </c>
       <c r="AA160" s="105" t="n">
-        <v>12109220237611.41</v>
+        <v>5685870726846.58</v>
       </c>
       <c r="AB160" s="105" t="n">
-        <v>11998234479503.56</v>
+        <v>5616802499586.014</v>
       </c>
       <c r="AC160" s="105" t="n">
-        <v>11904808712119.9</v>
+        <v>5556072501804.186</v>
       </c>
       <c r="AD160" s="105" t="n">
-        <v>11822369449156.09</v>
+        <v>5500394176884.904</v>
       </c>
       <c r="AE160" s="105" t="n">
-        <v>11747540784047.48</v>
+        <v>5448937933354.602</v>
       </c>
       <c r="AF160" s="105" t="n">
-        <v>11686614335268.59</v>
+        <v>5403776214170.251</v>
       </c>
       <c r="AG160" s="105" t="n">
-        <v>11644772206449.32</v>
+        <v>5369212316135.485</v>
       </c>
       <c r="AH160" s="105" t="n">
-        <v>11620595841501.96</v>
+        <v>5342331775816.116</v>
       </c>
       <c r="AI160" s="105" t="n">
-        <v>11611680575569.29</v>
+        <v>5321707120192.683</v>
       </c>
       <c r="AJ160" s="105" t="n">
-        <v>11617393919568.38</v>
+        <v>5309361293045.32</v>
       </c>
       <c r="AK160" s="105" t="n">
-        <v>11635692567642.52</v>
+        <v>5302186676488.47</v>
       </c>
       <c r="AL160" s="105" t="n">
-        <v>11666888373944.69</v>
+        <v>5301237752462.104</v>
       </c>
       <c r="AM160" s="105" t="n">
-        <v>11711209679446.56</v>
+        <v>5305981271484.556</v>
       </c>
       <c r="AN160" s="105" t="n">
-        <v>11769399232950.59</v>
+        <v>5318638281841.497</v>
       </c>
       <c r="AO160" s="105" t="n">
-        <v>11842108635714.09</v>
+        <v>5337964821134.816</v>
       </c>
     </row>
     <row r="161">
@@ -64835,100 +64835,100 @@
         </is>
       </c>
       <c r="J173" s="105" t="n">
-        <v>27675073964877.56</v>
+        <v>10822809169671.44</v>
       </c>
       <c r="K173" s="105" t="n">
-        <v>27991948165047.74</v>
+        <v>10921604890789.02</v>
       </c>
       <c r="L173" s="105" t="n">
-        <v>28301254898925.82</v>
+        <v>11013772704474.39</v>
       </c>
       <c r="M173" s="105" t="n">
-        <v>28599557539403.61</v>
+        <v>11102564632440.21</v>
       </c>
       <c r="N173" s="105" t="n">
-        <v>28865807075831.82</v>
+        <v>11176784925270.67</v>
       </c>
       <c r="O173" s="105" t="n">
-        <v>29080088171584.2</v>
+        <v>11233602967014.94</v>
       </c>
       <c r="P173" s="105" t="n">
-        <v>29222671724869.17</v>
+        <v>11266515469420.98</v>
       </c>
       <c r="Q173" s="105" t="n">
-        <v>29290287304972.64</v>
+        <v>11272241061303.04</v>
       </c>
       <c r="R173" s="105" t="n">
-        <v>29304221003342.17</v>
+        <v>11257030811512.36</v>
       </c>
       <c r="S173" s="105" t="n">
-        <v>29292161154844.57</v>
+        <v>11227775207784.62</v>
       </c>
       <c r="T173" s="105" t="n">
-        <v>29273589476016.96</v>
+        <v>11197135806951.69</v>
       </c>
       <c r="U173" s="105" t="n">
-        <v>29264553720979.15</v>
+        <v>11166692504087.37</v>
       </c>
       <c r="V173" s="105" t="n">
-        <v>29281239234900.35</v>
+        <v>11144489594840.49</v>
       </c>
       <c r="W173" s="105" t="n">
-        <v>29325820000106.02</v>
+        <v>11134287048527.03</v>
       </c>
       <c r="X173" s="105" t="n">
-        <v>29401965093765.07</v>
+        <v>11133425870696.58</v>
       </c>
       <c r="Y173" s="105" t="n">
-        <v>29507114041541.23</v>
+        <v>11142005538097.04</v>
       </c>
       <c r="Z173" s="105" t="n">
-        <v>29632845584820.36</v>
+        <v>11158000394492.48</v>
       </c>
       <c r="AA173" s="105" t="n">
-        <v>29769308122481.31</v>
+        <v>11180989373736.95</v>
       </c>
       <c r="AB173" s="105" t="n">
-        <v>29918425779377.36</v>
+        <v>11208901699327.33</v>
       </c>
       <c r="AC173" s="105" t="n">
-        <v>30083583989527.98</v>
+        <v>11241752825667.44</v>
       </c>
       <c r="AD173" s="105" t="n">
-        <v>30260668115877.27</v>
+        <v>11280570763440.42</v>
       </c>
       <c r="AE173" s="105" t="n">
-        <v>30444252257199.77</v>
+        <v>11319254456393.47</v>
       </c>
       <c r="AF173" s="105" t="n">
-        <v>30639654069674.91</v>
+        <v>11364932703792.55</v>
       </c>
       <c r="AG173" s="105" t="n">
-        <v>30845826330180</v>
+        <v>11410616523629.37</v>
       </c>
       <c r="AH173" s="105" t="n">
-        <v>31066050369366.21</v>
+        <v>11463303932381.11</v>
       </c>
       <c r="AI173" s="105" t="n">
-        <v>31300027756653.99</v>
+        <v>11518276992021.48</v>
       </c>
       <c r="AJ173" s="105" t="n">
-        <v>31546390055161.12</v>
+        <v>11579532295999.35</v>
       </c>
       <c r="AK173" s="105" t="n">
-        <v>31805564319520.57</v>
+        <v>11641568093663.81</v>
       </c>
       <c r="AL173" s="105" t="n">
-        <v>32071649802403.17</v>
+        <v>11708696268535.89</v>
       </c>
       <c r="AM173" s="105" t="n">
-        <v>32341363057328.84</v>
+        <v>11778536567353.84</v>
       </c>
       <c r="AN173" s="105" t="n">
-        <v>32616415012153.77</v>
+        <v>11850802590796.98</v>
       </c>
       <c r="AO173" s="105" t="n">
-        <v>32893604813335.04</v>
+        <v>11924859156107.78</v>
       </c>
     </row>
     <row r="174">
@@ -65051,100 +65051,100 @@
         </is>
       </c>
       <c r="J175" s="105" t="n">
-        <v>23025698669787.39</v>
+        <v>8374027459842.864</v>
       </c>
       <c r="K175" s="105" t="n">
-        <v>23394552339042.77</v>
+        <v>8470537041409.066</v>
       </c>
       <c r="L175" s="105" t="n">
-        <v>23759674751881.73</v>
+        <v>8566023238577.131</v>
       </c>
       <c r="M175" s="105" t="n">
-        <v>24114939101910.77</v>
+        <v>8652386280595.023</v>
       </c>
       <c r="N175" s="105" t="n">
-        <v>24451039307252.97</v>
+        <v>8729937137759.73</v>
       </c>
       <c r="O175" s="105" t="n">
-        <v>24769333337979.04</v>
+        <v>8797783310627.414</v>
       </c>
       <c r="P175" s="105" t="n">
-        <v>25070299149974.64</v>
+        <v>8862590903396.299</v>
       </c>
       <c r="Q175" s="105" t="n">
-        <v>25363848483917.12</v>
+        <v>8926529160481.523</v>
       </c>
       <c r="R175" s="105" t="n">
-        <v>25661378764010.82</v>
+        <v>8993069688808.725</v>
       </c>
       <c r="S175" s="105" t="n">
-        <v>25970038585838.69</v>
+        <v>9063344791670.434</v>
       </c>
       <c r="T175" s="105" t="n">
-        <v>26283506640569.7</v>
+        <v>9141470370598.518</v>
       </c>
       <c r="U175" s="105" t="n">
-        <v>26601270101619.17</v>
+        <v>9221289365864.295</v>
       </c>
       <c r="V175" s="105" t="n">
-        <v>26919930711725.64</v>
+        <v>9300427394320.707</v>
       </c>
       <c r="W175" s="105" t="n">
-        <v>27235685256824.05</v>
+        <v>9382440713613.949</v>
       </c>
       <c r="X175" s="105" t="n">
-        <v>27552947262926.2</v>
+        <v>9462440088762.238</v>
       </c>
       <c r="Y175" s="105" t="n">
-        <v>27876474270301.48</v>
+        <v>9544200835428.006</v>
       </c>
       <c r="Z175" s="105" t="n">
-        <v>28199349401248.41</v>
+        <v>9627446700994.387</v>
       </c>
       <c r="AA175" s="105" t="n">
-        <v>28519730883024.44</v>
+        <v>9710120632705.348</v>
       </c>
       <c r="AB175" s="105" t="n">
-        <v>28842860887988.81</v>
+        <v>9793040356165.936</v>
       </c>
       <c r="AC175" s="105" t="n">
-        <v>29168960718225.76</v>
+        <v>9872189421960.746</v>
       </c>
       <c r="AD175" s="105" t="n">
-        <v>29503422166254.09</v>
+        <v>9960964512403.115</v>
       </c>
       <c r="AE175" s="105" t="n">
-        <v>29837311914960.5</v>
+        <v>10043449157395.06</v>
       </c>
       <c r="AF175" s="105" t="n">
-        <v>30170371742398.05</v>
+        <v>10129042130020.6</v>
       </c>
       <c r="AG175" s="105" t="n">
-        <v>30500848889105.82</v>
+        <v>10211333758941.61</v>
       </c>
       <c r="AH175" s="105" t="n">
-        <v>30836178586890</v>
+        <v>10295901019817.31</v>
       </c>
       <c r="AI175" s="105" t="n">
-        <v>31172140232591.96</v>
+        <v>10378026545661.09</v>
       </c>
       <c r="AJ175" s="105" t="n">
-        <v>31516283319901.79</v>
+        <v>10465924800587.46</v>
       </c>
       <c r="AK175" s="105" t="n">
-        <v>31862546101258.06</v>
+        <v>10550527183875.12</v>
       </c>
       <c r="AL175" s="105" t="n">
-        <v>32205996102865.08</v>
+        <v>10636278217510.94</v>
       </c>
       <c r="AM175" s="105" t="n">
-        <v>32548503111003.75</v>
+        <v>10722913561973.73</v>
       </c>
       <c r="AN175" s="105" t="n">
-        <v>32890065871503.24</v>
+        <v>10809140306861.82</v>
       </c>
       <c r="AO175" s="105" t="n">
-        <v>33230699084273.58</v>
+        <v>10894107698150.65</v>
       </c>
     </row>
     <row r="176">
@@ -65159,100 +65159,100 @@
         </is>
       </c>
       <c r="J176" s="105" t="n">
-        <v>279066541846.8649</v>
+        <v>15122617871.96817</v>
       </c>
       <c r="K176" s="105" t="n">
-        <v>268125860390.8371</v>
+        <v>14469167510.57298</v>
       </c>
       <c r="L176" s="105" t="n">
-        <v>257034837538.4184</v>
+        <v>13809337939.24295</v>
       </c>
       <c r="M176" s="105" t="n">
-        <v>245821966577.1462</v>
+        <v>13140470720.70957</v>
       </c>
       <c r="N176" s="105" t="n">
-        <v>234547234003.7616</v>
+        <v>12467215019.30696</v>
       </c>
       <c r="O176" s="105" t="n">
-        <v>223413886029.8548</v>
+        <v>11794532601.55236</v>
       </c>
       <c r="P176" s="105" t="n">
-        <v>212683415500.5711</v>
+        <v>11145211084.88217</v>
       </c>
       <c r="Q176" s="105" t="n">
-        <v>202667659520.3716</v>
+        <v>10531415379.6593</v>
       </c>
       <c r="R176" s="105" t="n">
-        <v>193657558084.1914</v>
+        <v>9968285447.205732</v>
       </c>
       <c r="S176" s="105" t="n">
-        <v>185915112151.5768</v>
+        <v>9470978492.425524</v>
       </c>
       <c r="T176" s="105" t="n">
-        <v>179513924129.9801</v>
+        <v>9046946380.775579</v>
       </c>
       <c r="U176" s="105" t="n">
-        <v>174468202971.0535</v>
+        <v>8704771077.835358</v>
       </c>
       <c r="V176" s="105" t="n">
-        <v>170674175947.7398</v>
+        <v>8438563966.582162</v>
       </c>
       <c r="W176" s="105" t="n">
-        <v>167897463875.9045</v>
+        <v>8246407543.47526</v>
       </c>
       <c r="X176" s="105" t="n">
-        <v>165928094450.1267</v>
+        <v>8105753831.863845</v>
       </c>
       <c r="Y176" s="105" t="n">
-        <v>164494510779.1595</v>
+        <v>8007281463.105695</v>
       </c>
       <c r="Z176" s="105" t="n">
-        <v>163370173884.9738</v>
+        <v>7931409987.297141</v>
       </c>
       <c r="AA176" s="105" t="n">
-        <v>162357391805.7846</v>
+        <v>7868404549.343082</v>
       </c>
       <c r="AB176" s="105" t="n">
-        <v>161408936828.2928</v>
+        <v>7808048825.270263</v>
       </c>
       <c r="AC176" s="105" t="n">
-        <v>160472766373.3569</v>
+        <v>7747119106.861128</v>
       </c>
       <c r="AD176" s="105" t="n">
-        <v>159541113688.9248</v>
+        <v>7692210023.375699</v>
       </c>
       <c r="AE176" s="105" t="n">
-        <v>158574782867.9126</v>
+        <v>7632148698.697413</v>
       </c>
       <c r="AF176" s="105" t="n">
-        <v>157551117417.1942</v>
+        <v>7568648183.934236</v>
       </c>
       <c r="AG176" s="105" t="n">
-        <v>156461065660.9286</v>
+        <v>7505451850.268127</v>
       </c>
       <c r="AH176" s="105" t="n">
-        <v>155325457806.4232</v>
+        <v>7437873700.815057</v>
       </c>
       <c r="AI176" s="105" t="n">
-        <v>154123875319.8063</v>
+        <v>7367640416.479196</v>
       </c>
       <c r="AJ176" s="105" t="n">
-        <v>152897020858.8976</v>
+        <v>7297260859.87851</v>
       </c>
       <c r="AK176" s="105" t="n">
-        <v>151627625078.3495</v>
+        <v>7223002972.537763</v>
       </c>
       <c r="AL176" s="105" t="n">
-        <v>150291188485.4199</v>
+        <v>7149076334.13016</v>
       </c>
       <c r="AM176" s="105" t="n">
-        <v>148905399566.627</v>
+        <v>7073293660.261165</v>
       </c>
       <c r="AN176" s="105" t="n">
-        <v>147474525536.7337</v>
+        <v>6994266753.626924</v>
       </c>
       <c r="AO176" s="105" t="n">
-        <v>145994316327.6794</v>
+        <v>6914681926.439015</v>
       </c>
     </row>
     <row r="177">
@@ -66020,100 +66020,100 @@
         </is>
       </c>
       <c r="J186" s="105" t="n">
-        <v>61421833899288.97</v>
+        <v>44327837978797.8</v>
       </c>
       <c r="K186" s="105" t="n">
-        <v>61859677024336.64</v>
+        <v>44643827226840.55</v>
       </c>
       <c r="L186" s="105" t="n">
-        <v>62366265612008.6</v>
+        <v>45009429739996.57</v>
       </c>
       <c r="M186" s="105" t="n">
-        <v>62982901499770.45</v>
+        <v>45454452852941.02</v>
       </c>
       <c r="N186" s="105" t="n">
-        <v>63698590869591.38</v>
+        <v>45970962380816.53</v>
       </c>
       <c r="O186" s="105" t="n">
-        <v>64530465527236.46</v>
+        <v>46571322264294.15</v>
       </c>
       <c r="P186" s="105" t="n">
-        <v>65384546060507.05</v>
+        <v>47187708019915.52</v>
       </c>
       <c r="Q186" s="105" t="n">
-        <v>66298015035100.27</v>
+        <v>47846954124009.71</v>
       </c>
       <c r="R186" s="105" t="n">
-        <v>67251394569939.27</v>
+        <v>48535003484794.68</v>
       </c>
       <c r="S186" s="105" t="n">
-        <v>68229517015333.94</v>
+        <v>49240909683459.67</v>
       </c>
       <c r="T186" s="105" t="n">
-        <v>69249323217430.95</v>
+        <v>49976898846050.48</v>
       </c>
       <c r="U186" s="105" t="n">
-        <v>70296163845504.43</v>
+        <v>50732398622025.12</v>
       </c>
       <c r="V186" s="105" t="n">
-        <v>71364855709912.08</v>
+        <v>51503668328696.48</v>
       </c>
       <c r="W186" s="105" t="n">
-        <v>72483960913577.53</v>
+        <v>52311321096450.88</v>
       </c>
       <c r="X186" s="105" t="n">
-        <v>73628245506926.44</v>
+        <v>53137145706943.2</v>
       </c>
       <c r="Y186" s="105" t="n">
-        <v>74813286338831.16</v>
+        <v>53992383896038.38</v>
       </c>
       <c r="Z186" s="105" t="n">
-        <v>76032836301775.48</v>
+        <v>54872527156708.27</v>
       </c>
       <c r="AA186" s="105" t="n">
-        <v>77265289678934.58</v>
+        <v>55761982748488.7</v>
       </c>
       <c r="AB186" s="105" t="n">
-        <v>78551948307774.05</v>
+        <v>56690558006054.85</v>
       </c>
       <c r="AC186" s="105" t="n">
-        <v>79847036439768.66</v>
+        <v>57625216794938.48</v>
       </c>
       <c r="AD186" s="105" t="n">
-        <v>81182253371572.91</v>
+        <v>58588836342941.79</v>
       </c>
       <c r="AE186" s="105" t="n">
-        <v>82554352789674.02</v>
+        <v>59579073801434.4</v>
       </c>
       <c r="AF186" s="105" t="n">
-        <v>83968245084259.42</v>
+        <v>60599472975067.34</v>
       </c>
       <c r="AG186" s="105" t="n">
-        <v>85411217800732.75</v>
+        <v>61640859347355.29</v>
       </c>
       <c r="AH186" s="105" t="n">
-        <v>86899447946767.06</v>
+        <v>62714907785842.82</v>
       </c>
       <c r="AI186" s="105" t="n">
-        <v>88412721082757.38</v>
+        <v>63807029628050.19</v>
       </c>
       <c r="AJ186" s="105" t="n">
-        <v>89941243708274.25</v>
+        <v>64910156952479.1</v>
       </c>
       <c r="AK186" s="105" t="n">
-        <v>91526235820946.83</v>
+        <v>66054038030393.88</v>
       </c>
       <c r="AL186" s="105" t="n">
-        <v>93109154657762.47</v>
+        <v>67196422835233.84</v>
       </c>
       <c r="AM186" s="105" t="n">
-        <v>94742186754435.62</v>
+        <v>68374974135317.07</v>
       </c>
       <c r="AN186" s="105" t="n">
-        <v>96412483256642.41</v>
+        <v>69580418975140.26</v>
       </c>
       <c r="AO186" s="105" t="n">
-        <v>98129346625793.53</v>
+        <v>70819470895736.59</v>
       </c>
     </row>
     <row r="187">
@@ -66236,100 +66236,100 @@
         </is>
       </c>
       <c r="J188" s="105" t="n">
-        <v>19762629147868.29</v>
+        <v>14262593076236.91</v>
       </c>
       <c r="K188" s="105" t="n">
-        <v>19305662781035.05</v>
+        <v>13932802677859.08</v>
       </c>
       <c r="L188" s="105" t="n">
-        <v>18986405579014.31</v>
+        <v>13702396312136.68</v>
       </c>
       <c r="M188" s="105" t="n">
-        <v>18920933709848.31</v>
+        <v>13655145583457.39</v>
       </c>
       <c r="N188" s="105" t="n">
-        <v>18899955431769.69</v>
+        <v>13640005662476.39</v>
       </c>
       <c r="O188" s="105" t="n">
-        <v>18872020767592.21</v>
+        <v>13619845351573.23</v>
       </c>
       <c r="P188" s="105" t="n">
-        <v>18833774284021.06</v>
+        <v>13592243050903.09</v>
       </c>
       <c r="Q188" s="105" t="n">
-        <v>18795009481485.68</v>
+        <v>13564266681964.22</v>
       </c>
       <c r="R188" s="105" t="n">
-        <v>18708177415004.27</v>
+        <v>13501600403053.3</v>
       </c>
       <c r="S188" s="105" t="n">
-        <v>18634712521810.91</v>
+        <v>13448581147914.42</v>
       </c>
       <c r="T188" s="105" t="n">
-        <v>18581707587731.93</v>
+        <v>13410327745487.81</v>
       </c>
       <c r="U188" s="105" t="n">
-        <v>18557974035159.25</v>
+        <v>13393199356341.57</v>
       </c>
       <c r="V188" s="105" t="n">
-        <v>18543297424487.88</v>
+        <v>13382607317995.96</v>
       </c>
       <c r="W188" s="105" t="n">
-        <v>18538823513428.2</v>
+        <v>13379378518202.88</v>
       </c>
       <c r="X188" s="105" t="n">
-        <v>18546598297891.66</v>
+        <v>13384989542233.54</v>
       </c>
       <c r="Y188" s="105" t="n">
-        <v>18545152460780.91</v>
+        <v>13383946088641.87</v>
       </c>
       <c r="Z188" s="105" t="n">
-        <v>18512634765761.8</v>
+        <v>13360478226731.16</v>
       </c>
       <c r="AA188" s="105" t="n">
-        <v>18485791299403.73</v>
+        <v>13341105427972.64</v>
       </c>
       <c r="AB188" s="105" t="n">
-        <v>18466558937836.21</v>
+        <v>13327225526423.1</v>
       </c>
       <c r="AC188" s="105" t="n">
-        <v>18461048388848.08</v>
+        <v>13323248590092.6</v>
       </c>
       <c r="AD188" s="105" t="n">
-        <v>18456192558551.6</v>
+        <v>13319744161048.89</v>
       </c>
       <c r="AE188" s="105" t="n">
-        <v>18466613497727.18</v>
+        <v>13327264902030.34</v>
       </c>
       <c r="AF188" s="105" t="n">
-        <v>18475288520391.68</v>
+        <v>13333525623580.35</v>
       </c>
       <c r="AG188" s="105" t="n">
-        <v>18471414768132.7</v>
+        <v>13330729955466.82</v>
       </c>
       <c r="AH188" s="105" t="n">
-        <v>18453600963730.44</v>
+        <v>13317873819705.33</v>
       </c>
       <c r="AI188" s="105" t="n">
-        <v>18430385730122</v>
+        <v>13301119498827.8</v>
       </c>
       <c r="AJ188" s="105" t="n">
-        <v>18404142422564.62</v>
+        <v>13282179831748.85</v>
       </c>
       <c r="AK188" s="105" t="n">
-        <v>18380299750210</v>
+        <v>13264972691388.14</v>
       </c>
       <c r="AL188" s="105" t="n">
-        <v>18362485945807.75</v>
+        <v>13252116555626.65</v>
       </c>
       <c r="AM188" s="105" t="n">
-        <v>18338097674543.41</v>
+        <v>13234515659193.62</v>
       </c>
       <c r="AN188" s="105" t="n">
-        <v>18321156828396.71</v>
+        <v>13222289533147.85</v>
       </c>
       <c r="AO188" s="105" t="n">
-        <v>18302360945956.97</v>
+        <v>13208724636456.17</v>
       </c>
     </row>
     <row r="189">
@@ -66344,100 +66344,100 @@
         </is>
       </c>
       <c r="J189" s="105" t="n">
-        <v>4761114325752.042</v>
+        <v>3436072989558.079</v>
       </c>
       <c r="K189" s="105" t="n">
-        <v>4730560786807.908</v>
+        <v>3414022649507.744</v>
       </c>
       <c r="L189" s="105" t="n">
-        <v>4726932554058.291</v>
+        <v>3411404171626.766</v>
       </c>
       <c r="M189" s="105" t="n">
-        <v>4732197583537.056</v>
+        <v>3415203917724.726</v>
       </c>
       <c r="N189" s="105" t="n">
-        <v>4730888146153.736</v>
+        <v>3414258903151.14</v>
       </c>
       <c r="O189" s="105" t="n">
-        <v>4725432157056.568</v>
+        <v>3410321342427.866</v>
       </c>
       <c r="P189" s="105" t="n">
-        <v>4710564586766.789</v>
+        <v>3399591489456.944</v>
       </c>
       <c r="Q189" s="105" t="n">
-        <v>4696488134896.097</v>
+        <v>3389432582790.896</v>
       </c>
       <c r="R189" s="105" t="n">
-        <v>4687785832286.116</v>
+        <v>3383152173437.273</v>
       </c>
       <c r="S189" s="105" t="n">
-        <v>4688877030105.549</v>
+        <v>3383939685581.929</v>
       </c>
       <c r="T189" s="105" t="n">
-        <v>4688740630378.12</v>
+        <v>3383841246563.846</v>
       </c>
       <c r="U189" s="105" t="n">
-        <v>4680911286023.684</v>
+        <v>3378190846925.948</v>
       </c>
       <c r="V189" s="105" t="n">
-        <v>4670108427611.293</v>
+        <v>3370394476693.864</v>
       </c>
       <c r="W189" s="105" t="n">
-        <v>4657968851870.096</v>
+        <v>3361633404084.578</v>
       </c>
       <c r="X189" s="105" t="n">
-        <v>4657696052415.237</v>
+        <v>3361436526048.417</v>
       </c>
       <c r="Y189" s="105" t="n">
-        <v>4657314133178.436</v>
+        <v>3361160896797.787</v>
       </c>
       <c r="Z189" s="105" t="n">
-        <v>4658732690343.698</v>
+        <v>3362184662585.837</v>
       </c>
       <c r="AA189" s="105" t="n">
-        <v>4651639904517.382</v>
+        <v>3357065833645.581</v>
       </c>
       <c r="AB189" s="105" t="n">
-        <v>4651230705335.097</v>
+        <v>3356770516591.336</v>
       </c>
       <c r="AC189" s="105" t="n">
-        <v>4654367899065.966</v>
+        <v>3359034614007.218</v>
       </c>
       <c r="AD189" s="105" t="n">
-        <v>4655322697157.972</v>
+        <v>3359723687133.792</v>
       </c>
       <c r="AE189" s="105" t="n">
-        <v>4656604854595.804</v>
+        <v>3360649013903.761</v>
       </c>
       <c r="AF189" s="105" t="n">
-        <v>4661433404946.798</v>
+        <v>3364133755143.859</v>
       </c>
       <c r="AG189" s="105" t="n">
-        <v>4670544906739.066</v>
+        <v>3370709481551.727</v>
       </c>
       <c r="AH189" s="105" t="n">
-        <v>4680774886296.257</v>
+        <v>3378092407907.866</v>
       </c>
       <c r="AI189" s="105" t="n">
-        <v>4690268307325.327</v>
+        <v>3384943763566.363</v>
       </c>
       <c r="AJ189" s="105" t="n">
-        <v>4697606612661.016</v>
+        <v>3390239782739.166</v>
       </c>
       <c r="AK189" s="105" t="n">
-        <v>4701753164374.863</v>
+        <v>3393232328888.856</v>
       </c>
       <c r="AL189" s="105" t="n">
-        <v>4702789802303.323</v>
+        <v>3393980465426.277</v>
       </c>
       <c r="AM189" s="105" t="n">
-        <v>4705926996034.196</v>
+        <v>3396244562842.16</v>
       </c>
       <c r="AN189" s="105" t="n">
-        <v>4709828028238.671</v>
+        <v>3399059918759.303</v>
       </c>
       <c r="AO189" s="105" t="n">
-        <v>4711301145294.904</v>
+        <v>3400123060154.585</v>
       </c>
     </row>
     <row r="190">
